--- a/Reference/Ability.xlsx
+++ b/Reference/Ability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12690" activeTab="5"/>
+    <workbookView windowWidth="28245" windowHeight="12690" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Energized 1.0.23" sheetId="5" r:id="rId1"/>
@@ -8287,13 +8287,13 @@
     <t>在场时，任何天气都会失效。</t>
   </si>
   <si>
-    <t>被攻击时，物攻能力等级增加一级，如果被命中要害，则增加到最大等级。</t>
+    <t>被伤害类技能攻击后，物攻能力等级增加一级，如果被命中要害，则增加到最大等级。</t>
   </si>
   <si>
     <t>使对手的非幽灵系和处于地面上的精灵无法逃走和替换。</t>
   </si>
   <si>
-    <t>免疫被命中要害；受到的攻击伤害减少20%。</t>
+    <t>免疫被命中要害；受到的技能伤害减少20%。</t>
   </si>
   <si>
     <t>火系技能威力增加20%，当HP少于33%时，威力增加量增加到50%。</t>
@@ -8308,19 +8308,19 @@
     <t>免疫非自身的能力等级减少效果。</t>
   </si>
   <si>
-    <t>被伤害技能攻击后，会变成这个技能的结算属性。</t>
+    <t>被伤害类技能攻击后，会变成这个技能的结算属性。</t>
   </si>
   <si>
     <t>Color Change ER</t>
   </si>
   <si>
-    <t>被攻击之前，变成免疫或者抵抗该攻击的属性。</t>
+    <t>在被伤害类技能攻击之前，变成免疫或者抵抗该攻击的属性。</t>
   </si>
   <si>
     <t>命中率增加30%。</t>
   </si>
   <si>
-    <t>被接触类技能攻击时，有30%的概率使攻击者着迷。</t>
+    <t>被接触类技能攻击后，有30%的概率使攻击者着迷。</t>
   </si>
   <si>
     <t>使自爆类技能的使用失败；使引爆不会发动。</t>
@@ -8329,7 +8329,7 @@
     <t>Damp ER</t>
   </si>
   <si>
-    <t>和对手接触时，使对手变为水系。</t>
+    <t>和对手接触后，使对手变为水系。</t>
   </si>
   <si>
     <t>根据对手的物防和特防中较小的那项能力，对应地增加自己的物攻或者特攻的能力等级一级。</t>
@@ -8347,10 +8347,10 @@
     <t>睡眠的持续回合减少50%。</t>
   </si>
   <si>
-    <t>被接触类技能攻击时，有30%的概率使攻击者睡眠、麻痹或者中毒。</t>
-  </si>
-  <si>
-    <t>和对手接触时，有30%的概率使对手烧伤。</t>
+    <t>被接触类技能攻击后，有30%的概率使攻击者睡眠、麻痹或者中毒。</t>
+  </si>
+  <si>
+    <t>和对手接触后，有30%的概率使对手烧伤。</t>
   </si>
   <si>
     <t>成为火系技能的目标后，不会受到影响，还会吸收火焰，使自身使用的火系技能威力增加50%。</t>
@@ -8413,7 +8413,7 @@
     <t>晴天时，免疫异常。</t>
   </si>
   <si>
-    <t>免疫地面系技能的攻击；自身视为飞空单位；飞行系技能威力增加25%。</t>
+    <t>免疫地面系技能的影响；自身视为飞空单位；飞行系技能威力增加25%。</t>
   </si>
   <si>
     <t>吸引电系技能，不仅不会受到影响，还会使物攻和特攻中较大的那一项的能力等级增加一级。</t>
@@ -8422,7 +8422,7 @@
     <t>免疫麻痹，即使麻痹了也会立刻解除；受到的反伤伤害减少50%。</t>
   </si>
   <si>
-    <t>被吸取HP时，对手不仅不会得到回复，反而会受到同等的伤害。</t>
+    <t>在被吸取HP后，对手不仅不会得到回复，反而会受到同等的伤害。</t>
   </si>
   <si>
     <t>不会受到技能攻击以外的伤害。</t>
@@ -8479,7 +8479,7 @@
     <t>中毒或者剧毒时，回合结束时HP不仅不会减少，反而会回复12.5%HP。</t>
   </si>
   <si>
-    <t>和对手接触时，有30%的概率使对手中毒。</t>
+    <t>和对手接触后，有30%的概率使对手中毒。</t>
   </si>
   <si>
     <t>成为非队友使用的技能的目标时，该技能需要多消耗1PP；出场时，清除场上精灵增加的能力等级。</t>
@@ -8500,10 +8500,10 @@
     <t>免疫反伤伤害。</t>
   </si>
   <si>
-    <t>被接触类技能攻击时，对手会受到12.5%HP的伤害。</t>
-  </si>
-  <si>
-    <t>必定能够逃走；当能力等级被对手减少时，速度能力等级增加一级。</t>
+    <t>被接触类技能攻击后，对手会受到12.5%HP的伤害。</t>
+  </si>
+  <si>
+    <t>必定能够逃走；当能力等级被对手减少后，速度能力等级增加一级。</t>
   </si>
   <si>
     <t>出场时，开启持续8回合的沙暴。</t>
@@ -8548,22 +8548,22 @@
     <t>Stall ER</t>
   </si>
   <si>
-    <t>自身未使用技能之前受到的伤害减少30%。</t>
-  </si>
-  <si>
-    <t>和对手接触时，有30%的概率使对手麻痹。</t>
+    <t>自身未使用技能之前受到的技能伤害减少30%。</t>
+  </si>
+  <si>
+    <t>和对手接触后，有30%的概率使对手麻痹。</t>
   </si>
   <si>
     <t>畏缩时，速度能力等级增加一级。</t>
   </si>
   <si>
-    <t>攻击时，有10%的概率使目标畏缩。</t>
+    <t>技能攻击造成伤害时，有10%的概率使目标畏缩。</t>
   </si>
   <si>
     <t>携带的物品不会以任何方式失去。</t>
   </si>
   <si>
-    <t>免疫一击必杀类技能；在满HP时也不会被一击打倒，而是会保留1HP。</t>
+    <t>免疫一击必杀类技能；在满HP时不会被一击打倒，而是会保留1HP。</t>
   </si>
   <si>
     <t>不会被对手强制换下场。</t>
@@ -8596,7 +8596,7 @@
     <t>每两个回合只能使用一次伤害类技能。</t>
   </si>
   <si>
-    <t>当失去携带的物品时，速度增加100%。</t>
+    <t>当失去携带的物品后，速度增加100%。</t>
   </si>
   <si>
     <t>免疫睡眠；使用睡觉会失败；使用格斗系技能会回复异常。</t>
@@ -8617,7 +8617,7 @@
     <t>出场时，开启持续3回合的烟幕，使我方全体回避率增加33%。</t>
   </si>
   <si>
-    <t>只会受到效果拔群的技能的攻击。</t>
+    <t>只会受到效果拔群的技能的伤害和非直接类伤害。</t>
   </si>
   <si>
     <t>使携带的物品失效；无法使用投掷。</t>
@@ -10648,8 +10648,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -10679,8 +10679,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10688,7 +10689,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10717,38 +10718,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10757,29 +10728,6 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10801,8 +10749,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10810,7 +10803,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10831,13 +10831,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10849,25 +10897,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10885,13 +10927,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10903,7 +10981,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10915,97 +10999,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11028,65 +11028,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11110,18 +11058,70 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11130,148 +11130,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -25854,8 +25854,8 @@
   <sheetPr/>
   <dimension ref="A1:C109"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -27110,7 +27110,7 @@
   <sheetPr/>
   <dimension ref="A1:D515"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>

--- a/Reference/Ability.xlsx
+++ b/Reference/Ability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8010" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="20490" windowHeight="8010" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Energized 1.0.23" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4608" uniqueCount="3574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4600" uniqueCount="3581">
   <si>
     <t>- Volume Up: Power of sound based moves are increased by 30%. Used by Loudred/Exploud.</t>
   </si>
@@ -8537,6 +8537,24 @@
     <t>不会被击中要害。</t>
   </si>
   <si>
+    <t xml:space="preserve">Big Pecks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevents the Pokémon from having its Defense stat lowered. </t>
+  </si>
+  <si>
+    <t>物防不会被减少。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlorophyll </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boosts the Pokémon's Speed stat in harsh sunlight. </t>
+  </si>
+  <si>
+    <t>晴天时，速度翻倍。</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cute Charm </t>
   </si>
   <si>
@@ -8579,7 +8597,7 @@
     <t xml:space="preserve">Contact with the Pokémon may inflict poison, sleep, or paralysis on the attacker. </t>
   </si>
   <si>
-    <t>被接触类技能攻击后，有30%的概率使攻击者睡眠、麻痹或者中毒。</t>
+    <t>被接触类技能攻击时，有30%的概率使攻击者睡眠、麻痹或者中毒。</t>
   </si>
   <si>
     <t xml:space="preserve">Flame Body </t>
@@ -8642,7 +8660,16 @@
     <t xml:space="preserve">Sometimes cures the status conditions of the Pokémon's allies. </t>
   </si>
   <si>
-    <t>回合结束时，有30%的概率回复一位队友的异常状态。</t>
+    <t>回合结束时，有30%的概率回复一位队友的异常。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyper Cutter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Pokémon's prized, mighty pincers prevent other Pokémon from lowering its Attack stat. </t>
+  </si>
+  <si>
+    <t>物攻能力等级不会被对手减少。</t>
   </si>
   <si>
     <t xml:space="preserve">Inner Focus </t>
@@ -8654,13 +8681,31 @@
     <t>免疫畏缩；不会受到威吓的影响。</t>
   </si>
   <si>
+    <t xml:space="preserve">Justified </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the Pokémon is hit by a Dark-type attack, its Attack stat is boosted by its sense of justice. </t>
+  </si>
+  <si>
+    <t>被恶属性技能攻击时，物攻能力等级增加1级。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keen Eye </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Pokémon's keen eyes prevent its accuracy from being lowered. It also ignores the target's stages in evasion. </t>
+  </si>
+  <si>
+    <t>命中率不会被对手减少；无视目标增加的回避率能力等级。</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lightning Rod </t>
   </si>
   <si>
     <t xml:space="preserve">The Pokémon draws in all Electric-type moves. Instead of taking damage from them, its Sp. Atk stat is boosted. </t>
   </si>
   <si>
-    <t>吸引电属性技能，不仅不会受到影响，还会使特攻的能力等级增加1级。</t>
+    <t>吸引电属性技能，不仅不会受到影响，还会使特攻能力等级增加1级。</t>
   </si>
   <si>
     <t xml:space="preserve">Limber </t>
@@ -8699,6 +8744,33 @@
     <t>波动和波导类技能的威力增加50%；治愈波动变为回复最大HP的75%。</t>
   </si>
   <si>
+    <t xml:space="preserve">Motor Drive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Pokémon takes no damage when hit by Electric-type moves. Instead, its Speed stat is boosted. </t>
+  </si>
+  <si>
+    <t>被电属性技能命中时，不仅不会受到影响，还会使速度能力等级增加1级。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Cure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Pokémon's status conditions are cured when it switches out. </t>
+  </si>
+  <si>
+    <t>离场时，会回复异常。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oblivious </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Pokémon is oblivious, keeping it from being infatuated, falling for taunts, or being affected by Intimidate. </t>
+  </si>
+  <si>
+    <t>不会着迷和被挑衅，即使着迷或者被挑衅了也会立刻解除；不会受到威吓的影响。</t>
+  </si>
+  <si>
     <t xml:space="preserve">Overcoat </t>
   </si>
   <si>
@@ -8714,7 +8786,7 @@
     <t>Doubles Sp. Def. The Pokémon takes double damage from Psychic-type moves.</t>
   </si>
   <si>
-    <t>特防翻倍；受到超能属性攻击时，伤害翻倍。</t>
+    <t>特防翻倍；被超能属性技能攻击时，受到的伤害翻倍。</t>
   </si>
   <si>
     <t xml:space="preserve">Poison Point </t>
@@ -8762,6 +8834,24 @@
     <t>无视麻痹的速度减少效果；处于异常时，速度增加50%。</t>
   </si>
   <si>
+    <t xml:space="preserve">Rattled </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Pokémon gets scared when hit by a Dark-, Ghost-, or Bug-type attack or if intimidated, which boosts its Speed stat. </t>
+  </si>
+  <si>
+    <t>被恶属性、鬼属性或者虫属性技能攻击时，或者被威吓时，速度能力等级增加1级。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reckless </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Powers up moves that have recoil damage. </t>
+  </si>
+  <si>
+    <t>使用反伤类技能时，技能威力增加20%。</t>
+  </si>
+  <si>
     <t>Recon</t>
   </si>
   <si>
@@ -8771,6 +8861,24 @@
     <t>使用单体的变化类技能时，会在技能命中目标之前先使目标的特防能力等级减少2阶。</t>
   </si>
   <si>
+    <t xml:space="preserve">Rock Head </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protects the Pokémon from recoil damage. </t>
+  </si>
+  <si>
+    <t>不会受到技能的反伤伤害。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sand Rush </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boosts the Pokémon's Speed stat in a sandstorm. </t>
+  </si>
+  <si>
+    <t>沙暴时，速度翻倍；不会受到沙暴的伤害。</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sand Veil </t>
   </si>
   <si>
@@ -8780,6 +8888,15 @@
     <t>沙暴时，回避率增加20%；不会受到沙暴的伤害。</t>
   </si>
   <si>
+    <t xml:space="preserve">Sap Sipper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Pokémon takes no damage when hit by Grass-type moves. Instead, its Attack stat is boosted. </t>
+  </si>
+  <si>
+    <t>被草属性技能命中时，不仅不会受到影响，还会使物攻能力等级增加1级。</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sharpness </t>
   </si>
   <si>
@@ -8795,6 +8912,15 @@
     <t xml:space="preserve">A hard shell protects the Pokémon from critical hits. </t>
   </si>
   <si>
+    <t xml:space="preserve">Slush Rush </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boosts the Pokémon's Speed stat in snow. </t>
+  </si>
+  <si>
+    <t>雪天时，速度翻倍。</t>
+  </si>
+  <si>
     <t xml:space="preserve">Speed Boost </t>
   </si>
   <si>
@@ -8840,7 +8966,7 @@
     <t xml:space="preserve">By releasing a stench when attacking, the Pokémon may cause the target to flinch. </t>
   </si>
   <si>
-    <t>攻击目标造成伤害时，有10%的概率使目标畏缩。</t>
+    <t>攻击时，有10%的概率使目标畏缩。</t>
   </si>
   <si>
     <t xml:space="preserve">Storm Drain </t>
@@ -8849,7 +8975,7 @@
     <t xml:space="preserve">The Pokémon draws in all Water-type moves. Instead of taking damage from them, its Sp. Atk stat is boosted. </t>
   </si>
   <si>
-    <t>吸引水属性技能，不仅不会受到影响，还会使特攻的能力等级增加1级。</t>
+    <t>吸引水属性技能，不仅不会受到影响，还会使特攻能力等级增加1级。</t>
   </si>
   <si>
     <t xml:space="preserve">Strong Jaw </t>
@@ -8879,6 +9005,15 @@
     <t>使用踢类技能时，速度翻倍。</t>
   </si>
   <si>
+    <t xml:space="preserve">Swift Swim </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boosts the Pokémon's Speed stat in rain. </t>
+  </si>
+  <si>
+    <t>雨天时，速度翻倍。</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tangled Feet </t>
   </si>
   <si>
@@ -8903,7 +9038,7 @@
     <t>Takes 20% less damage from neutrally effective attacks.</t>
   </si>
   <si>
-    <t>受到效果一般的攻击时，伤害减少20%。</t>
+    <t>被效果一般的技能攻击时，受到的伤害减少20%。</t>
   </si>
   <si>
     <t xml:space="preserve">Volt Absorb </t>
@@ -8924,6 +9059,15 @@
     <t>被水属性技能命中时，不会受到影响，还会回复25%HP。</t>
   </si>
   <si>
+    <t xml:space="preserve">Wonder Skin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makes status moves more likely to miss the Pokémon. </t>
+  </si>
+  <si>
+    <t>被变化类技能攻击时，该技能的命中率减半。</t>
+  </si>
+  <si>
     <t>本系技能的伤害增加33%。</t>
   </si>
   <si>
@@ -8942,9 +9086,6 @@
     <t>免疫对手的声音类技能。</t>
   </si>
   <si>
-    <t>晴天时，速度增加100%。</t>
-  </si>
-  <si>
     <t>免疫非自身的能力等级减少效果。</t>
   </si>
   <si>
@@ -8984,9 +9125,6 @@
     <t>雨天时，回合结束时会回复异常。</t>
   </si>
   <si>
-    <t>不会被对手减少物攻和特攻能力等级；接触类技能的命中要害率增加一级。</t>
-  </si>
-  <si>
     <t>Prevents accuracy from being lowered.</t>
   </si>
   <si>
@@ -9005,9 +9143,6 @@
     <t>拳类技能的威力增加30%。</t>
   </si>
   <si>
-    <t>无视对手增加的回避率；命中率增加20%且绝对不会被减少。</t>
-  </si>
-  <si>
     <t>晴天时，免疫异常。</t>
   </si>
   <si>
@@ -9026,24 +9161,12 @@
     <t>队友有正电或者负电时，伤害增加100%。</t>
   </si>
   <si>
-    <t>Raises Speed by one stage if hit by an Electric-type move.</t>
-  </si>
-  <si>
-    <t>成为电系技能的目标后，不会受到影响，还会使速度能力等级增加一级。</t>
-  </si>
-  <si>
-    <t>离场时，会回复异常。</t>
-  </si>
-  <si>
     <t>该特性的精灵使用的技能和对该特性的精灵使用的技能都必定会命中。</t>
   </si>
   <si>
     <t>所有技能的属性变成一般系；技能威力增加20%；技能至少会打出一倍效果。</t>
   </si>
   <si>
-    <t>免疫着迷、挑衅、威吓和惊吓，即使着迷或者挑衅了也会立刻解除。</t>
-  </si>
-  <si>
     <t>草系技能威力增加20%，当HP少于33%时，威力增加量增加到50%。</t>
   </si>
   <si>
@@ -9071,9 +9194,6 @@
     <t>对同性的目标造成的伤害增加25%，对异性的目标造成的伤害减少25%。</t>
   </si>
   <si>
-    <t>免疫反伤伤害。</t>
-  </si>
-  <si>
     <t>被接触类技能攻击后，对手会受到12.5%HP的伤害。</t>
   </si>
   <si>
@@ -9125,9 +9245,6 @@
     <t>虫系技能威力增加20%，当HP少于33%时，威力增加量增加到50%。</t>
   </si>
   <si>
-    <t>雨天时，速度增加100%。</t>
-  </si>
-  <si>
     <t>对手使自身陷入异常时，对手也会陷入同样的异常。</t>
   </si>
   <si>
@@ -9161,12 +9278,6 @@
     <t>只会受到效果拔群的技能的伤害和非直接类伤害。</t>
   </si>
   <si>
-    <t xml:space="preserve">Oblivious </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Pokémon is oblivious, keeping it from being infatuated, falling for taunts, or being affected by Intimidate. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cloud Nine </t>
   </si>
   <si>
@@ -9257,30 +9368,12 @@
     <t xml:space="preserve">Prevents other Pokémon's moves or Abilities from lowering the Pokémon's stats. </t>
   </si>
   <si>
-    <t xml:space="preserve">Natural Cure </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Pokémon's status conditions are cured when it switches out. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Serene Grace </t>
   </si>
   <si>
     <t xml:space="preserve">Raises the likelihood of additional effects occurring when the Pokémon uses its moves. </t>
   </si>
   <si>
-    <t xml:space="preserve">Swift Swim </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boosts the Pokémon's Speed stat in rain. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chlorophyll </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boosts the Pokémon's Speed stat in harsh sunlight. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Illuminate </t>
   </si>
   <si>
@@ -9359,18 +9452,6 @@
     <t xml:space="preserve">Enables a sure getaway from wild Pokémon. </t>
   </si>
   <si>
-    <t xml:space="preserve">Keen Eye </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Pokémon's keen eyes prevent its accuracy from being lowered. It also ignores the target's stages in evasion. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyper Cutter </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Pokémon's prized, mighty pincers prevent other Pokémon from lowering its Attack stat. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Pickup </t>
   </si>
   <si>
@@ -9446,12 +9527,6 @@
     <t xml:space="preserve">Powers up Bug-type moves when the Pokémon's HP is low. </t>
   </si>
   <si>
-    <t xml:space="preserve">Rock Head </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protects the Pokémon from recoil damage. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Drought </t>
   </si>
   <si>
@@ -9485,12 +9560,6 @@
     <t xml:space="preserve">Air Lock </t>
   </si>
   <si>
-    <t xml:space="preserve">Motor Drive </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Pokémon takes no damage when hit by Electric-type moves. Instead, its Speed stat is boosted. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Rivalry </t>
   </si>
   <si>
@@ -9698,12 +9767,6 @@
     <t xml:space="preserve">The Pokémon may gather Honey after a battle. </t>
   </si>
   <si>
-    <t xml:space="preserve">Reckless </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Powers up moves that have recoil damage. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Multitype </t>
   </si>
   <si>
@@ -9818,24 +9881,6 @@
     <t xml:space="preserve">The Pokémon has a little of its HP restored when withdrawn from battle. </t>
   </si>
   <si>
-    <t xml:space="preserve">Big Pecks </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prevents the Pokémon from having its Defense stat lowered. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sand Rush </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boosts the Pokémon's Speed stat in a sandstorm. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wonder Skin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Makes status moves more likely to miss the Pokémon. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Analytic </t>
   </si>
   <si>
@@ -9872,30 +9917,12 @@
     <t xml:space="preserve">When the Pokémon knocks out a target, it shows moxie, which boosts its Attack stat. </t>
   </si>
   <si>
-    <t xml:space="preserve">Justified </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the Pokémon is hit by a Dark-type attack, its Attack stat is boosted by its sense of justice. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rattled </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Pokémon gets scared when hit by a Dark-, Ghost-, or Bug-type attack or if intimidated, which boosts its Speed stat. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Magic Bounce </t>
   </si>
   <si>
     <t xml:space="preserve">The Pokémon reflects status moves instead of getting hit by them. </t>
   </si>
   <si>
-    <t xml:space="preserve">Sap Sipper </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Pokémon takes no damage when hit by Grass-type moves. Instead, its Attack stat is boosted. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Prankster </t>
   </si>
   <si>
@@ -10140,12 +10167,6 @@
   </si>
   <si>
     <t xml:space="preserve">Boosts the Pokémon's Sp. Atk stat when it takes a hit that causes its HP to drop to half or less. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slush Rush </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boosts the Pokémon's Speed stat in snow. </t>
   </si>
   <si>
     <t xml:space="preserve">Long Reach </t>
@@ -10753,10 +10774,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -10773,29 +10794,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10907,6 +10905,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -10938,36 +10959,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11081,6 +11072,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -11134,30 +11155,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -11169,6 +11166,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11223,6 +11229,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -11239,10 +11260,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11251,138 +11272,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -11394,10 +11421,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -26433,10 +26457,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -26480,1431 +26504,1487 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>2837</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>2838</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>2839</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>2840</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>2841</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>2842</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>2843</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>2844</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>2846</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>2847</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>2848</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>2849</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>2850</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>2851</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>2852</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>2853</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>2854</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>2855</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>2856</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>2857</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>2858</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="3" t="s">
         <v>2859</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>2860</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>2861</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="3" t="s">
         <v>2862</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>2863</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>2864</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="3" t="s">
         <v>2865</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>2866</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>2867</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>2868</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>2869</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>2870</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="3" t="s">
         <v>2871</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>2872</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>2873</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="3" t="s">
         <v>2874</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>2875</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="3" t="s">
+        <v>2876</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>2877</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>2878</v>
+      </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="3" t="s">
+        <v>2879</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>2881</v>
+      </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>2876</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>2877</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>2878</v>
+      <c r="A19" s="3" t="s">
+        <v>2882</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>2884</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>2879</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>2880</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>2881</v>
+      <c r="A20" s="3" t="s">
+        <v>2885</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>2886</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>2887</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>2882</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>2883</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>2884</v>
+      <c r="A21" s="3" t="s">
+        <v>2888</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>2890</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>2885</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>2886</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>2887</v>
+      <c r="A22" s="3" t="s">
+        <v>2891</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2892</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>2893</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>2888</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>2889</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>2890</v>
+      <c r="A23" s="3" t="s">
+        <v>2894</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>2896</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>2897</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>2898</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>2899</v>
+      </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>2891</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>2892</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>2893</v>
+      <c r="A25" s="3" t="s">
+        <v>2900</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>2901</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>2902</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>2894</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>2895</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>2896</v>
+      <c r="A26" s="3" t="s">
+        <v>2903</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>2904</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>2905</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>2897</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>2898</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>2899</v>
+      <c r="A27" s="3" t="s">
+        <v>2906</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>2907</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>2908</v>
       </c>
     </row>
     <row r="28" customFormat="1" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>2900</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>2901</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>2902</v>
+      <c r="A28" s="3" t="s">
+        <v>2909</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>2910</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>2911</v>
       </c>
     </row>
     <row r="29" customFormat="1" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>2903</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>2904</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>2905</v>
+      <c r="A29" s="3" t="s">
+        <v>2912</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>2914</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>2906</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>2907</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>2908</v>
+      <c r="A30" s="3" t="s">
+        <v>2915</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>2916</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>2917</v>
       </c>
     </row>
     <row r="31" customFormat="1" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>2909</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>2910</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>2911</v>
+      <c r="A31" s="3" t="s">
+        <v>2918</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>2919</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>2920</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>2912</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>2913</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>2914</v>
+      <c r="A32" s="3" t="s">
+        <v>2921</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>2922</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>2923</v>
       </c>
     </row>
     <row r="33" customFormat="1" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>2915</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>2916</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>2917</v>
+      <c r="A33" s="3" t="s">
+        <v>2924</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>2926</v>
       </c>
     </row>
     <row r="34" customFormat="1" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>2918</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>2919</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>2920</v>
+      <c r="A34" s="3" t="s">
+        <v>2927</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>2929</v>
       </c>
     </row>
     <row r="35" customFormat="1" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>2921</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>2922</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="A35" s="3" t="s">
+        <v>2930</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:3">
+      <c r="A36" s="3" t="s">
+        <v>2933</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>2934</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>2936</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>2937</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:3">
+      <c r="A38" s="3" t="s">
+        <v>2939</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>2940</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:3">
+      <c r="A39" s="3" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>2943</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:3">
+      <c r="A40" s="3" t="s">
+        <v>2945</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:3">
+      <c r="A41" s="3" t="s">
+        <v>2948</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:3">
+      <c r="A42" s="3" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:3">
+      <c r="A43" s="3" t="s">
+        <v>2954</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:3">
+      <c r="A44" s="3" t="s">
+        <v>2957</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>2958</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:3">
+      <c r="A45" s="3" t="s">
+        <v>2960</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>2961</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>2836</v>
       </c>
     </row>
-    <row r="36" customFormat="1" spans="1:3">
-      <c r="A36" s="1" t="s">
-        <v>2923</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>2924</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>2925</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:3">
-      <c r="A37" s="1" t="s">
-        <v>2926</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>2904</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>2905</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>2927</v>
-      </c>
-      <c r="B38" s="1" t="s">
+    <row r="46" customFormat="1" spans="1:3">
+      <c r="A46" s="3" t="s">
+        <v>2962</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>2963</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:3">
+      <c r="A47" s="3" t="s">
+        <v>2965</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>2966</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:3">
+      <c r="A48" s="3" t="s">
+        <v>2968</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>2928</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C48" s="4" t="s">
         <v>2929</v>
       </c>
     </row>
-    <row r="39" customFormat="1" spans="1:3">
-      <c r="A39" s="1" t="s">
-        <v>2930</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>2931</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>2932</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>2933</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>2934</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>2935</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>2936</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>2937</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>2938</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:3">
-      <c r="A42" s="1" t="s">
-        <v>2939</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>2940</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>2941</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:3">
-      <c r="A43" s="1" t="s">
-        <v>2942</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>2943</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>2944</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>2945</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>2946</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>2947</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:3">
-      <c r="A45" s="1" t="s">
-        <v>2948</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>2949</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>2950</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:3">
-      <c r="A46" s="1" t="s">
-        <v>2951</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>2952</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>2953</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:3">
-      <c r="A47" s="1" t="s">
-        <v>2954</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>2955</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>2956</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:3">
-      <c r="A48" s="1" t="s">
-        <v>2957</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>2958</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>2959</v>
-      </c>
-    </row>
     <row r="49" customFormat="1" spans="1:3">
-      <c r="A49" s="1" t="s">
-        <v>2960</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>2961</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>2962</v>
+      <c r="A49" s="3" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>2971</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:3">
-      <c r="A50" s="1" t="s">
-        <v>2963</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>2964</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>2965</v>
+      <c r="A50" s="3" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>2973</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>2974</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:3">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="2"/>
+      <c r="A51" s="3" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>2977</v>
+      </c>
     </row>
     <row r="52" customFormat="1" spans="1:3">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="2"/>
+      <c r="A52" s="3" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>2980</v>
+      </c>
     </row>
     <row r="53" customFormat="1" spans="1:3">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="2"/>
+      <c r="A53" s="3" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>2983</v>
+      </c>
     </row>
     <row r="54" customFormat="1" spans="1:3">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="4"/>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="5" t="s">
+      <c r="A54" s="3" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:3">
+      <c r="A55" s="3" t="s">
+        <v>2987</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="56" customFormat="1" spans="1:3">
+      <c r="A56" s="3" t="s">
+        <v>2990</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="57" customFormat="1" spans="1:3">
+      <c r="A57" s="3" t="s">
+        <v>2993</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" spans="1:3">
+      <c r="A58" s="3" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:3">
+      <c r="A59" s="3" t="s">
+        <v>2999</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>3000</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:3">
+      <c r="A60" s="3" t="s">
+        <v>3002</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>3003</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:3">
+      <c r="A61" s="3" t="s">
+        <v>3005</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:3">
+      <c r="A62" s="3" t="s">
+        <v>3008</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>3009</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:3">
+      <c r="A63" s="3" t="s">
+        <v>3011</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>3012</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="3:3">
+      <c r="C64" s="6"/>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B65" s="1" t="s">
         <v>1702</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>2966</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="5" t="s">
+      <c r="C65" s="7" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B66" s="1" t="s">
         <v>1626</v>
       </c>
-      <c r="C56" s="6" t="s">
-        <v>2967</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="5" t="s">
+      <c r="C66" s="7" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
         <v>549</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B67" s="1" t="s">
         <v>1694</v>
       </c>
-      <c r="C57" s="6" t="s">
-        <v>2968</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="5" t="s">
+      <c r="C67" s="7" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B68" s="1" t="s">
         <v>1683</v>
       </c>
-      <c r="C58" s="6" t="s">
-        <v>2969</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="5" t="s">
+      <c r="C68" s="7" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B69" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="C59" s="6" t="s">
-        <v>2970</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="5" t="s">
+      <c r="C69" s="7" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B70" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="C60" s="6" t="s">
-        <v>2971</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="5" t="s">
-        <v>647</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>2972</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="5" t="s">
+      <c r="C70" s="7" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B71" s="1" t="s">
         <v>1642</v>
       </c>
-      <c r="C62" s="7" t="s">
-        <v>2973</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="5" t="s">
+      <c r="C71" s="8" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B72" s="1" t="s">
         <v>1626</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>2967</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="5" t="s">
+      <c r="C72" s="8" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B73" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>2974</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="5" t="s">
+      <c r="C73" s="8" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B74" s="1" t="s">
         <v>1627</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>2975</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="5" t="s">
+      <c r="C74" s="8" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B75" s="1" t="s">
         <v>1699</v>
       </c>
-      <c r="C66" s="6" t="s">
-        <v>2976</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="5" t="s">
+      <c r="C75" s="7" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B76" s="1" t="s">
         <v>1682</v>
       </c>
-      <c r="C67" s="6" t="s">
-        <v>2977</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="5" t="s">
+      <c r="C76" s="7" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B77" s="1" t="s">
         <v>1698</v>
       </c>
-      <c r="C68" s="6" t="s">
-        <v>2978</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="5" t="s">
+      <c r="C77" s="7" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B78" s="1" t="s">
         <v>1661</v>
       </c>
-      <c r="C69" s="6" t="s">
-        <v>2979</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="5" t="s">
+      <c r="C78" s="7" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B79" s="1" t="s">
         <v>1671</v>
       </c>
-      <c r="C70" s="6" t="s">
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="5" t="s">
+      <c r="C79" s="7" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B80" s="1" t="s">
         <v>1692</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>2981</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="5" t="s">
+      <c r="C80" s="7" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B81" s="1" t="s">
         <v>1696</v>
       </c>
-      <c r="C72" s="6" t="s">
-        <v>2982</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="5" t="s">
+      <c r="C81" s="7" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
         <v>642</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B82" s="1" t="s">
         <v>1650</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>2983</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="5" t="s">
+      <c r="C82" s="7" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B83" t="s">
         <v>1668</v>
       </c>
-      <c r="C74" s="6" t="s">
-        <v>2984</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="5" t="s">
+      <c r="C83" s="7" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B84" s="1" t="s">
         <v>1704</v>
       </c>
-      <c r="C75" s="6" t="s">
-        <v>2985</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="5" t="s">
-        <v>611</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>1665</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>2986</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="5" t="s">
+      <c r="C84" s="7" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>2987</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>2988</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="5" t="s">
+      <c r="B85" s="1" t="s">
+        <v>3033</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B86" s="1" t="s">
         <v>1630</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>2989</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="5" t="s">
+      <c r="C86" s="8" t="s">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
         <v>681</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B87" s="1" t="s">
         <v>1628</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>2990</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="5" t="s">
+      <c r="C87" s="8" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B88" s="1" t="s">
         <v>1635</v>
       </c>
-      <c r="C80" s="7" t="s">
-        <v>2991</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="5" t="s">
+      <c r="C88" s="8" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
         <v>537</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B89" s="1" t="s">
         <v>1700</v>
       </c>
-      <c r="C81" s="6" t="s">
-        <v>2992</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>1664</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>2993</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="5" t="s">
+      <c r="C89" s="7" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B90" s="1" t="s">
         <v>1712</v>
       </c>
-      <c r="C83" s="6" t="s">
-        <v>2994</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="5" t="s">
+      <c r="C90" s="7" t="s">
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B91" s="1" t="s">
         <v>1639</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>2995</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="5" t="s">
+      <c r="C91" s="8" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B92" s="1" t="s">
         <v>1676</v>
       </c>
-      <c r="C85" s="6" t="s">
-        <v>2996</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="5" t="s">
+      <c r="C92" s="7" t="s">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B93" s="1" t="s">
         <v>1653</v>
       </c>
-      <c r="C86" s="6" t="s">
-        <v>2997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="5" t="s">
+      <c r="C93" s="7" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B94" s="1" t="s">
         <v>1655</v>
       </c>
-      <c r="C87" s="6" t="s">
-        <v>2998</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="5" t="s">
+      <c r="C94" s="7" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B95" s="1" t="s">
         <v>1670</v>
       </c>
-      <c r="C88" s="6" t="s">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>3000</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>3001</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>3002</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="5" t="s">
+      <c r="C95" s="7" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B96" s="1" t="s">
         <v>1709</v>
       </c>
-      <c r="C91" s="6" t="s">
-        <v>3003</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="5" t="s">
+      <c r="C96" s="7" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B97" s="1" t="s">
         <v>1707</v>
       </c>
-      <c r="C92" s="6" t="s">
-        <v>3004</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>1625</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>3005</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="5" t="s">
+      <c r="C97" s="7" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B98" s="1" t="s">
         <v>1677</v>
       </c>
-      <c r="C94" s="6" t="s">
-        <v>3006</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="5" t="s">
+      <c r="C98" s="7" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B99" s="1" t="s">
         <v>1633</v>
       </c>
-      <c r="C95" s="7" t="s">
-        <v>3007</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="5" t="s">
+      <c r="C99" s="8" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>3008</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>3009</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="5" t="s">
+      <c r="B100" s="1" t="s">
+        <v>3049</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B101" s="1" t="s">
         <v>1670</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>2999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="5" t="s">
+      <c r="C101" s="7" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B102" s="1" t="s">
         <v>1701</v>
       </c>
-      <c r="C98" s="6" t="s">
-        <v>3010</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="5" t="s">
+      <c r="C102" s="7" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B103" t="s">
         <v>1659</v>
       </c>
-      <c r="C99" s="6" t="s">
-        <v>3011</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="5" t="s">
+      <c r="C103" s="7" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B104" s="1" t="s">
         <v>1650</v>
       </c>
-      <c r="C100" s="6" t="s">
-        <v>2983</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="5" t="s">
+      <c r="C104" s="7" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B105" s="1" t="s">
         <v>1657</v>
       </c>
-      <c r="C101" s="6" t="s">
-        <v>3012</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="5" t="s">
+      <c r="C105" s="7" t="s">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="B102" s="5" t="s">
-        <v>3013</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>3014</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="5" t="s">
-        <v>577</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>3015</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="5" t="s">
+      <c r="B106" s="1" t="s">
+        <v>3054</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B107" s="1" t="s">
         <v>1637</v>
       </c>
-      <c r="C104" s="7" t="s">
-        <v>3016</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="5" t="s">
+      <c r="C107" s="8" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B108" s="1" t="s">
         <v>1663</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>3017</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="5" t="s">
+      <c r="C108" s="7" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B109" s="1" t="s">
         <v>1658</v>
       </c>
-      <c r="C106" s="6" t="s">
-        <v>3018</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="5" t="s">
+      <c r="C109" s="7" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B110" s="1" t="s">
         <v>1645</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C110" s="7" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1636</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C119" s="7" t="s">
         <v>3019</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="5" t="s">
-        <v>665</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>1636</v>
-      </c>
-      <c r="C108" s="7" t="s">
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>3069</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>3074</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>3076</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>3078</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>3081</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C134" s="7" t="s">
+        <v>3082</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C135" s="7" t="s">
         <v>3020</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>3021</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>3022</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="5" t="s">
-        <v>543</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>3023</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>3024</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="5" t="s">
-        <v>515</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>1708</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>3025</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>3026</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>3027</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="5" t="s">
-        <v>629</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>2971</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>3028</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="5" t="s">
-        <v>555</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>3029</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="5" t="s">
-        <v>595</v>
-      </c>
-      <c r="B119" t="s">
-        <v>1672</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>3030</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>3031</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="5" t="s">
-        <v>579</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>1680</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>3032</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="5" t="s">
-        <v>648</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>1646</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>3033</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="5" t="s">
-        <v>656</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>1641</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>3034</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>3035</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>3036</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="5" t="s">
-        <v>621</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>1660</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>3037</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="5" t="s">
-        <v>581</v>
-      </c>
-      <c r="B127" s="5" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>3038</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="B128" s="5" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>3039</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="5" t="s">
-        <v>607</v>
-      </c>
-      <c r="B129" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>3040</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>3041</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="5" t="s">
-        <v>571</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>1684</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>3042</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="5" t="s">
-        <v>633</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C132" s="6" t="s">
-        <v>3043</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>1642</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>2973</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="5" t="s">
+    <row r="136" spans="1:3">
+      <c r="A136" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B136" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="C134" s="7" t="s">
-        <v>3044</v>
+      <c r="C136" s="8" t="s">
+        <v>3083</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:C47">
-    <sortCondition ref="A47"/>
+  <sortState ref="A1:C63">
+    <sortCondition ref="A63"/>
   </sortState>
-  <conditionalFormatting sqref="B74">
+  <conditionalFormatting sqref="B83">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B99">
+  <conditionalFormatting sqref="B103">
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B119">
+  <conditionalFormatting sqref="B122">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B129">
+  <conditionalFormatting sqref="B131">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A133:C133">
+  <conditionalFormatting sqref="A135:C135">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55:A114 A135:A65563">
+  <conditionalFormatting sqref="A65:A117 A137:A65565">
     <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A55 A56 A57 A58 A59 A60 A63 A64 A65 A66 A67 A68 A69 A76 A77 A78 A79 A80 A81 A85 A91 A92 A93 A94 A97 A98 A99 A100 A105 A106 A107 A108 A109 A110 A114 A61:A62 A70:A71 A72:A75 A82:A84 A86:A87 A88:A90 A95:A96 A101:A104 A111:A113" errorStyle="warning">
-      <formula1>COUNTIF($A:$A,A55)&lt;2</formula1>
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A65 A66 A67 A68 A69 A70 A71 A72 A73 A74 A75 A76 A77 A78 A85 A86 A87 A88 A89 A92 A95 A96 A97 A98 A101 A102 A103 A104 A105 A106 A107 A108 A109 A110 A111 A112 A113 A114 A117 A79:A80 A81:A84 A90:A91 A93:A94 A99:A100 A115:A116" errorStyle="warning">
+      <formula1>COUNTIF($A:$A,A65)&lt;2</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A135:A1048576" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A137:A1048576" errorStyle="warning">
       <formula1>COUNTIF($A:$A,#REF!)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -27916,10 +27996,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B272"/>
+  <dimension ref="A2:B257"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -27929,2180 +28009,2052 @@
     <col min="3" max="3" width="67.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>3045</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3046</v>
-      </c>
-    </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>3047</v>
+        <v>3084</v>
       </c>
       <c r="B2" t="s">
-        <v>3048</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3049</v>
+        <v>3086</v>
       </c>
       <c r="B3" t="s">
-        <v>3050</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3051</v>
+        <v>3088</v>
       </c>
       <c r="B4" t="s">
-        <v>3052</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>3053</v>
+        <v>3090</v>
       </c>
       <c r="B5" t="s">
-        <v>3054</v>
+        <v>3091</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>3055</v>
+        <v>3092</v>
       </c>
       <c r="B6" t="s">
-        <v>3056</v>
+        <v>3093</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>3057</v>
+        <v>3094</v>
       </c>
       <c r="B7" t="s">
-        <v>3058</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>3059</v>
+        <v>3096</v>
       </c>
       <c r="B8" t="s">
-        <v>3060</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>3061</v>
+        <v>3098</v>
       </c>
       <c r="B9" t="s">
-        <v>3062</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>3063</v>
+        <v>3100</v>
       </c>
       <c r="B10" t="s">
-        <v>3064</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>3065</v>
+        <v>3102</v>
       </c>
       <c r="B11" t="s">
-        <v>3066</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>3067</v>
+        <v>3104</v>
       </c>
       <c r="B12" t="s">
-        <v>3068</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>3069</v>
+        <v>3106</v>
       </c>
       <c r="B13" t="s">
-        <v>3070</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>3071</v>
+        <v>3108</v>
       </c>
       <c r="B14" t="s">
-        <v>3072</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>3073</v>
+        <v>3110</v>
       </c>
       <c r="B15" t="s">
-        <v>3074</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>3075</v>
+        <v>3112</v>
       </c>
       <c r="B16" t="s">
-        <v>3076</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>3077</v>
+        <v>3114</v>
       </c>
       <c r="B17" t="s">
-        <v>3078</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>3079</v>
+        <v>3116</v>
       </c>
       <c r="B18" t="s">
-        <v>3080</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>3081</v>
+        <v>3118</v>
       </c>
       <c r="B19" t="s">
-        <v>3082</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>3083</v>
+        <v>3120</v>
       </c>
       <c r="B20" t="s">
-        <v>3084</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>3085</v>
+        <v>3122</v>
       </c>
       <c r="B21" t="s">
-        <v>3086</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>3087</v>
+        <v>3124</v>
       </c>
       <c r="B22" t="s">
-        <v>3088</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>3089</v>
+        <v>3126</v>
       </c>
       <c r="B23" t="s">
-        <v>3090</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>3091</v>
+        <v>3128</v>
       </c>
       <c r="B24" t="s">
-        <v>3092</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>3093</v>
+        <v>3130</v>
       </c>
       <c r="B25" t="s">
-        <v>3094</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>3095</v>
+        <v>3132</v>
       </c>
       <c r="B26" t="s">
-        <v>3096</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>3097</v>
+        <v>3134</v>
       </c>
       <c r="B27" t="s">
-        <v>3098</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>3099</v>
+        <v>3136</v>
       </c>
       <c r="B28" t="s">
-        <v>3100</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>3101</v>
+        <v>3138</v>
       </c>
       <c r="B29" t="s">
-        <v>3102</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>3103</v>
+        <v>3140</v>
       </c>
       <c r="B30" t="s">
-        <v>3104</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>3105</v>
+        <v>3142</v>
       </c>
       <c r="B31" t="s">
-        <v>3106</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>3107</v>
+        <v>3144</v>
       </c>
       <c r="B32" t="s">
-        <v>3108</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>3109</v>
+        <v>3146</v>
       </c>
       <c r="B33" t="s">
-        <v>3110</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>3111</v>
+        <v>3148</v>
       </c>
       <c r="B34" t="s">
-        <v>3112</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>3113</v>
+        <v>3150</v>
       </c>
       <c r="B35" t="s">
-        <v>3114</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>3115</v>
+        <v>3151</v>
       </c>
       <c r="B36" t="s">
-        <v>3116</v>
+        <v>3152</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>3117</v>
+        <v>3153</v>
       </c>
       <c r="B37" t="s">
-        <v>3118</v>
+        <v>3154</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>3119</v>
+        <v>3155</v>
       </c>
       <c r="B38" t="s">
-        <v>3120</v>
+        <v>3156</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>3121</v>
+        <v>3157</v>
       </c>
       <c r="B39" t="s">
-        <v>3122</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>3123</v>
+        <v>3159</v>
       </c>
       <c r="B40" t="s">
-        <v>3122</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>3124</v>
+        <v>3161</v>
       </c>
       <c r="B41" t="s">
-        <v>3125</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>3126</v>
+        <v>3163</v>
       </c>
       <c r="B42" t="s">
-        <v>3127</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>3128</v>
+        <v>3165</v>
       </c>
       <c r="B43" t="s">
-        <v>3129</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>3130</v>
+        <v>3167</v>
       </c>
       <c r="B44" t="s">
-        <v>3131</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>3132</v>
+        <v>3169</v>
       </c>
       <c r="B45" t="s">
-        <v>3133</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>3134</v>
+        <v>3171</v>
       </c>
       <c r="B46" t="s">
-        <v>3135</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>3136</v>
+        <v>3173</v>
       </c>
       <c r="B47" t="s">
-        <v>3137</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>3138</v>
+        <v>3175</v>
       </c>
       <c r="B48" t="s">
-        <v>3139</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>3140</v>
+        <v>3177</v>
       </c>
       <c r="B49" t="s">
-        <v>3141</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>3142</v>
+        <v>3178</v>
       </c>
       <c r="B50" t="s">
-        <v>3143</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>3144</v>
+        <v>3180</v>
       </c>
       <c r="B51" t="s">
-        <v>3145</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>3146</v>
+        <v>3182</v>
       </c>
       <c r="B52" t="s">
-        <v>3147</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>3148</v>
+        <v>3184</v>
       </c>
       <c r="B53" t="s">
-        <v>3149</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>3150</v>
+        <v>3186</v>
       </c>
       <c r="B54" t="s">
-        <v>3151</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>3152</v>
+        <v>3188</v>
       </c>
       <c r="B55" t="s">
-        <v>3048</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>3153</v>
+        <v>3190</v>
       </c>
       <c r="B56" t="s">
-        <v>3154</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>3155</v>
+        <v>3192</v>
       </c>
       <c r="B57" t="s">
-        <v>3156</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>3157</v>
+        <v>3194</v>
       </c>
       <c r="B58" t="s">
-        <v>3158</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>3159</v>
+        <v>3196</v>
       </c>
       <c r="B59" t="s">
-        <v>3160</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>3161</v>
+        <v>3198</v>
       </c>
       <c r="B60" t="s">
-        <v>3162</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>3163</v>
+        <v>3200</v>
       </c>
       <c r="B61" t="s">
-        <v>3164</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>3165</v>
+        <v>3202</v>
       </c>
       <c r="B62" t="s">
-        <v>3166</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>3167</v>
+        <v>3204</v>
       </c>
       <c r="B63" t="s">
-        <v>3168</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>3169</v>
+        <v>3206</v>
       </c>
       <c r="B64" t="s">
-        <v>3170</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>3171</v>
+        <v>3208</v>
       </c>
       <c r="B65" t="s">
-        <v>3172</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>3173</v>
+        <v>3210</v>
       </c>
       <c r="B66" t="s">
-        <v>3174</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>3175</v>
+        <v>3212</v>
       </c>
       <c r="B67" t="s">
-        <v>3176</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>3177</v>
+        <v>3214</v>
       </c>
       <c r="B68" t="s">
-        <v>3178</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>3179</v>
+        <v>3216</v>
       </c>
       <c r="B69" t="s">
-        <v>3180</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>3181</v>
+        <v>3218</v>
       </c>
       <c r="B70" t="s">
-        <v>3182</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>3183</v>
+        <v>3220</v>
       </c>
       <c r="B71" t="s">
-        <v>3184</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>3185</v>
+        <v>3222</v>
       </c>
       <c r="B72" t="s">
-        <v>3186</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>3187</v>
+        <v>3224</v>
       </c>
       <c r="B73" t="s">
-        <v>3188</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>3189</v>
+        <v>3226</v>
       </c>
       <c r="B74" t="s">
-        <v>3190</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>3191</v>
+        <v>3228</v>
       </c>
       <c r="B75" t="s">
-        <v>3192</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>3193</v>
+        <v>3230</v>
       </c>
       <c r="B76" t="s">
-        <v>3194</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>3195</v>
+        <v>3232</v>
       </c>
       <c r="B77" t="s">
-        <v>3196</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>3197</v>
+        <v>3234</v>
       </c>
       <c r="B78" t="s">
-        <v>3198</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>3199</v>
+        <v>3236</v>
       </c>
       <c r="B79" t="s">
-        <v>3200</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>3201</v>
+        <v>3238</v>
       </c>
       <c r="B80" t="s">
-        <v>3202</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>3203</v>
+        <v>3240</v>
       </c>
       <c r="B81" t="s">
-        <v>3204</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>3205</v>
+        <v>3242</v>
       </c>
       <c r="B82" t="s">
-        <v>3206</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>3207</v>
+        <v>3243</v>
       </c>
       <c r="B83" t="s">
-        <v>3208</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>3209</v>
+        <v>3245</v>
       </c>
       <c r="B84" t="s">
-        <v>3210</v>
+        <v>3246</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>3211</v>
+        <v>3247</v>
       </c>
       <c r="B85" t="s">
-        <v>3212</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>3213</v>
+        <v>3249</v>
       </c>
       <c r="B86" t="s">
-        <v>3214</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>3215</v>
+        <v>3251</v>
       </c>
       <c r="B87" t="s">
-        <v>3216</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>3217</v>
+        <v>3253</v>
       </c>
       <c r="B88" t="s">
-        <v>3218</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>3219</v>
+        <v>3255</v>
       </c>
       <c r="B89" t="s">
-        <v>3212</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>3220</v>
+        <v>3257</v>
       </c>
       <c r="B90" t="s">
-        <v>3221</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>3222</v>
+        <v>3259</v>
       </c>
       <c r="B91" t="s">
-        <v>3223</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>3224</v>
+        <v>3261</v>
       </c>
       <c r="B92" t="s">
-        <v>3225</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>3226</v>
+        <v>3263</v>
       </c>
       <c r="B93" t="s">
-        <v>3227</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>3228</v>
+        <v>3265</v>
       </c>
       <c r="B94" t="s">
-        <v>3229</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>3230</v>
+        <v>3267</v>
       </c>
       <c r="B95" t="s">
-        <v>3231</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>3232</v>
+        <v>3269</v>
       </c>
       <c r="B96" t="s">
-        <v>3233</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>3234</v>
+        <v>3271</v>
       </c>
       <c r="B97" t="s">
-        <v>3235</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>3236</v>
+        <v>3273</v>
       </c>
       <c r="B98" t="s">
-        <v>3237</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>3238</v>
+        <v>3275</v>
       </c>
       <c r="B99" t="s">
-        <v>3239</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>3240</v>
+        <v>3277</v>
       </c>
       <c r="B100" t="s">
-        <v>3241</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>3242</v>
+        <v>3279</v>
       </c>
       <c r="B101" t="s">
-        <v>3243</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>3244</v>
+        <v>3281</v>
       </c>
       <c r="B102" t="s">
-        <v>3245</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>3246</v>
+        <v>3283</v>
       </c>
       <c r="B103" t="s">
-        <v>3247</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>3248</v>
+        <v>3285</v>
       </c>
       <c r="B104" t="s">
-        <v>3249</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>3250</v>
+        <v>3287</v>
       </c>
       <c r="B105" t="s">
-        <v>3251</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>3252</v>
+        <v>3289</v>
       </c>
       <c r="B106" t="s">
-        <v>3253</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>3254</v>
+        <v>3291</v>
       </c>
       <c r="B107" t="s">
-        <v>3255</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>3256</v>
+        <v>3293</v>
       </c>
       <c r="B108" t="s">
-        <v>3257</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>3258</v>
+        <v>3295</v>
       </c>
       <c r="B109" t="s">
-        <v>3259</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>3260</v>
+        <v>3297</v>
       </c>
       <c r="B110" t="s">
-        <v>3261</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>3262</v>
+        <v>3299</v>
       </c>
       <c r="B111" t="s">
-        <v>3263</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>3264</v>
+        <v>3301</v>
       </c>
       <c r="B112" t="s">
-        <v>3265</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>3266</v>
+        <v>3303</v>
       </c>
       <c r="B113" t="s">
-        <v>3267</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>3268</v>
+        <v>3305</v>
       </c>
       <c r="B114" t="s">
-        <v>3269</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>3270</v>
+        <v>3307</v>
       </c>
       <c r="B115" t="s">
-        <v>3271</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>3272</v>
+        <v>3309</v>
       </c>
       <c r="B116" t="s">
-        <v>3273</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>3274</v>
+        <v>3310</v>
       </c>
       <c r="B117" t="s">
-        <v>3275</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>3276</v>
+        <v>3311</v>
       </c>
       <c r="B118" t="s">
-        <v>3277</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>3278</v>
+        <v>3313</v>
       </c>
       <c r="B119" t="s">
-        <v>3279</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>3280</v>
+        <v>3315</v>
       </c>
       <c r="B120" t="s">
-        <v>3281</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>3282</v>
+        <v>3317</v>
       </c>
       <c r="B121" t="s">
-        <v>3283</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>3284</v>
+        <v>3319</v>
       </c>
       <c r="B122" t="s">
-        <v>3285</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>3286</v>
+        <v>3321</v>
       </c>
       <c r="B123" t="s">
-        <v>3287</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>3288</v>
+        <v>3323</v>
       </c>
       <c r="B124" t="s">
-        <v>3289</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>3290</v>
+        <v>3325</v>
       </c>
       <c r="B125" t="s">
-        <v>3291</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>3292</v>
+        <v>3327</v>
       </c>
       <c r="B126" t="s">
-        <v>3293</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>3294</v>
+        <v>3329</v>
       </c>
       <c r="B127" t="s">
-        <v>3295</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>3296</v>
+        <v>3331</v>
       </c>
       <c r="B128" t="s">
-        <v>3297</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>3298</v>
+        <v>3333</v>
       </c>
       <c r="B129" t="s">
-        <v>3299</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>3300</v>
+        <v>3335</v>
       </c>
       <c r="B130" t="s">
-        <v>3200</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>3301</v>
+        <v>3337</v>
       </c>
       <c r="B131" t="s">
-        <v>3200</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>3302</v>
+        <v>3339</v>
       </c>
       <c r="B132" t="s">
-        <v>3303</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>3304</v>
+        <v>3341</v>
       </c>
       <c r="B133" t="s">
-        <v>3305</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>3306</v>
+        <v>3343</v>
       </c>
       <c r="B134" t="s">
-        <v>3307</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>3308</v>
+        <v>3345</v>
       </c>
       <c r="B135" t="s">
-        <v>3309</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>3310</v>
+        <v>3347</v>
       </c>
       <c r="B136" t="s">
-        <v>3311</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>3312</v>
+        <v>3349</v>
       </c>
       <c r="B137" t="s">
-        <v>3313</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>3314</v>
+        <v>3351</v>
       </c>
       <c r="B138" t="s">
-        <v>3315</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>3316</v>
+        <v>3353</v>
       </c>
       <c r="B139" t="s">
-        <v>3317</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>3318</v>
+        <v>3355</v>
       </c>
       <c r="B140" t="s">
-        <v>3319</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>3320</v>
+        <v>3357</v>
       </c>
       <c r="B141" t="s">
-        <v>3321</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>3322</v>
+        <v>3359</v>
       </c>
       <c r="B142" t="s">
-        <v>3323</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>3324</v>
+        <v>3361</v>
       </c>
       <c r="B143" t="s">
-        <v>3325</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>3326</v>
+        <v>3363</v>
       </c>
       <c r="B144" t="s">
-        <v>3327</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>3328</v>
+        <v>3365</v>
       </c>
       <c r="B145" t="s">
-        <v>3329</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>3330</v>
+        <v>3367</v>
       </c>
       <c r="B146" t="s">
-        <v>3331</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>3332</v>
+        <v>3369</v>
       </c>
       <c r="B147" t="s">
-        <v>3333</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>3334</v>
+        <v>3371</v>
       </c>
       <c r="B148" t="s">
-        <v>3335</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>3336</v>
+        <v>3373</v>
       </c>
       <c r="B149" t="s">
-        <v>3337</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>3338</v>
+        <v>3375</v>
       </c>
       <c r="B150" t="s">
-        <v>3339</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>3340</v>
+        <v>3377</v>
       </c>
       <c r="B151" t="s">
-        <v>3341</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>3342</v>
+        <v>3379</v>
       </c>
       <c r="B152" t="s">
-        <v>3343</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>3344</v>
+        <v>3381</v>
       </c>
       <c r="B153" t="s">
-        <v>3345</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>3346</v>
+        <v>3383</v>
       </c>
       <c r="B154" t="s">
-        <v>3347</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>3348</v>
+        <v>3385</v>
       </c>
       <c r="B155" t="s">
-        <v>3349</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>3350</v>
+        <v>3387</v>
       </c>
       <c r="B156" t="s">
-        <v>3351</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>3352</v>
+        <v>3389</v>
       </c>
       <c r="B157" t="s">
-        <v>3353</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>3354</v>
+        <v>3391</v>
       </c>
       <c r="B158" t="s">
-        <v>3355</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>3356</v>
+        <v>3393</v>
       </c>
       <c r="B159" t="s">
-        <v>3357</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>3358</v>
+        <v>3395</v>
       </c>
       <c r="B160" t="s">
-        <v>3359</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>3360</v>
+        <v>3397</v>
       </c>
       <c r="B161" t="s">
-        <v>3361</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>3362</v>
+        <v>3399</v>
       </c>
       <c r="B162" t="s">
-        <v>3363</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>3364</v>
+        <v>3401</v>
       </c>
       <c r="B163" t="s">
-        <v>3365</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>3366</v>
+        <v>3403</v>
       </c>
       <c r="B164" t="s">
-        <v>3367</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>3368</v>
+        <v>3405</v>
       </c>
       <c r="B165" t="s">
-        <v>3369</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>3370</v>
+        <v>3407</v>
       </c>
       <c r="B166" t="s">
-        <v>3371</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>3372</v>
+        <v>3409</v>
       </c>
       <c r="B167" t="s">
-        <v>3373</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>3374</v>
+        <v>3411</v>
       </c>
       <c r="B168" t="s">
-        <v>3375</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>3376</v>
+        <v>3413</v>
       </c>
       <c r="B169" t="s">
-        <v>3377</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>3378</v>
+        <v>3415</v>
       </c>
       <c r="B170" t="s">
-        <v>3379</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>3380</v>
+        <v>3417</v>
       </c>
       <c r="B171" t="s">
-        <v>3381</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>3382</v>
+        <v>3418</v>
       </c>
       <c r="B172" t="s">
-        <v>3383</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>3384</v>
+        <v>3420</v>
       </c>
       <c r="B173" t="s">
-        <v>3385</v>
+        <v>3419</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>3386</v>
+        <v>3421</v>
       </c>
       <c r="B174" t="s">
-        <v>3387</v>
+        <v>3422</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>3388</v>
+        <v>3423</v>
       </c>
       <c r="B175" t="s">
-        <v>3389</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>3390</v>
+        <v>3425</v>
       </c>
       <c r="B176" t="s">
-        <v>3391</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>3392</v>
+        <v>3427</v>
       </c>
       <c r="B177" t="s">
-        <v>3393</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>3394</v>
+        <v>3429</v>
       </c>
       <c r="B178" t="s">
-        <v>3395</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>3396</v>
+        <v>3431</v>
       </c>
       <c r="B179" t="s">
-        <v>3397</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>3398</v>
+        <v>3433</v>
       </c>
       <c r="B180" t="s">
-        <v>3399</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>3400</v>
+        <v>3434</v>
       </c>
       <c r="B181" t="s">
-        <v>3401</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>3402</v>
+        <v>3435</v>
       </c>
       <c r="B182" t="s">
-        <v>3403</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>3404</v>
+        <v>3436</v>
       </c>
       <c r="B183" t="s">
-        <v>3405</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>3406</v>
+        <v>3438</v>
       </c>
       <c r="B184" t="s">
-        <v>3407</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>3408</v>
+        <v>3440</v>
       </c>
       <c r="B185" t="s">
-        <v>3409</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>3410</v>
+        <v>3442</v>
       </c>
       <c r="B186" t="s">
-        <v>3335</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>3411</v>
+        <v>3443</v>
       </c>
       <c r="B187" t="s">
-        <v>3412</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>3413</v>
+        <v>3445</v>
       </c>
       <c r="B188" t="s">
-        <v>3412</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>3414</v>
+        <v>3447</v>
       </c>
       <c r="B189" t="s">
-        <v>3415</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>3416</v>
+        <v>3449</v>
       </c>
       <c r="B190" t="s">
-        <v>3417</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>3418</v>
+        <v>3451</v>
       </c>
       <c r="B191" t="s">
-        <v>3419</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>3420</v>
+        <v>3453</v>
       </c>
       <c r="B192" t="s">
-        <v>3421</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>3422</v>
+        <v>3455</v>
       </c>
       <c r="B193" t="s">
-        <v>3423</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>3424</v>
+        <v>3457</v>
       </c>
       <c r="B194" t="s">
-        <v>3425</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>3426</v>
+        <v>3459</v>
       </c>
       <c r="B195" t="s">
-        <v>3076</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>3427</v>
+        <v>3461</v>
       </c>
       <c r="B196" t="s">
-        <v>3255</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>3428</v>
+        <v>3463</v>
       </c>
       <c r="B197" t="s">
-        <v>3212</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>3429</v>
+        <v>3465</v>
       </c>
       <c r="B198" t="s">
-        <v>3430</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>3431</v>
+        <v>3467</v>
       </c>
       <c r="B199" t="s">
-        <v>3432</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>3433</v>
+        <v>3469</v>
       </c>
       <c r="B200" t="s">
-        <v>3434</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>3435</v>
+        <v>3471</v>
       </c>
       <c r="B201" t="s">
-        <v>3309</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>3436</v>
+        <v>3473</v>
       </c>
       <c r="B202" t="s">
-        <v>3437</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>3438</v>
+        <v>3475</v>
       </c>
       <c r="B203" t="s">
-        <v>3439</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>3440</v>
+        <v>3477</v>
       </c>
       <c r="B204" t="s">
-        <v>3441</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>3442</v>
+        <v>3479</v>
       </c>
       <c r="B205" t="s">
-        <v>3443</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>3444</v>
+        <v>3481</v>
       </c>
       <c r="B206" t="s">
-        <v>3445</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>3446</v>
+        <v>3483</v>
       </c>
       <c r="B207" t="s">
-        <v>3447</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>3448</v>
+        <v>3485</v>
       </c>
       <c r="B208" t="s">
-        <v>3449</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>3450</v>
+        <v>3487</v>
       </c>
       <c r="B209" t="s">
-        <v>3451</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>3452</v>
+        <v>3489</v>
       </c>
       <c r="B210" t="s">
-        <v>3453</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>3454</v>
+        <v>3491</v>
       </c>
       <c r="B211" t="s">
-        <v>3455</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>3456</v>
+        <v>3493</v>
       </c>
       <c r="B212" t="s">
-        <v>3457</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>3458</v>
+        <v>3495</v>
       </c>
       <c r="B213" t="s">
-        <v>3459</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>3460</v>
+        <v>3497</v>
       </c>
       <c r="B214" t="s">
-        <v>3461</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>3462</v>
+        <v>3497</v>
       </c>
       <c r="B215" t="s">
-        <v>3463</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>3464</v>
+        <v>3500</v>
       </c>
       <c r="B216" t="s">
-        <v>3465</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>3466</v>
+        <v>3502</v>
       </c>
       <c r="B217" t="s">
-        <v>3467</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>3468</v>
+        <v>3504</v>
       </c>
       <c r="B218" t="s">
-        <v>3469</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>3470</v>
+        <v>3506</v>
       </c>
       <c r="B219" t="s">
-        <v>3471</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>3472</v>
+        <v>3508</v>
       </c>
       <c r="B220" t="s">
-        <v>3473</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>3474</v>
+        <v>3510</v>
       </c>
       <c r="B221" t="s">
-        <v>3475</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>3476</v>
+        <v>3512</v>
       </c>
       <c r="B222" t="s">
-        <v>3477</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>3478</v>
+        <v>3514</v>
       </c>
       <c r="B223" t="s">
-        <v>3479</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>3480</v>
+        <v>3516</v>
       </c>
       <c r="B224" t="s">
-        <v>3481</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>3482</v>
+        <v>3518</v>
       </c>
       <c r="B225" t="s">
-        <v>3483</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>3484</v>
+        <v>3520</v>
       </c>
       <c r="B226" t="s">
-        <v>3485</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>3486</v>
+        <v>3522</v>
       </c>
       <c r="B227" t="s">
-        <v>3487</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>3488</v>
+        <v>3524</v>
       </c>
       <c r="B228" t="s">
-        <v>3489</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>3490</v>
+        <v>3526</v>
       </c>
       <c r="B229" t="s">
-        <v>3491</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>3490</v>
+        <v>3528</v>
       </c>
       <c r="B230" t="s">
-        <v>3492</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>3493</v>
+        <v>3530</v>
       </c>
       <c r="B231" t="s">
-        <v>3494</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>3495</v>
+        <v>3532</v>
       </c>
       <c r="B232" t="s">
-        <v>3496</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>3497</v>
+        <v>3534</v>
       </c>
       <c r="B233" t="s">
-        <v>3498</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>3499</v>
+        <v>3536</v>
       </c>
       <c r="B234" t="s">
-        <v>3500</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>3501</v>
+        <v>3538</v>
       </c>
       <c r="B235" t="s">
-        <v>3502</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>3503</v>
+        <v>3540</v>
       </c>
       <c r="B236" t="s">
-        <v>3504</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>3505</v>
+        <v>3542</v>
       </c>
       <c r="B237" t="s">
-        <v>3506</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>3507</v>
+        <v>3544</v>
       </c>
       <c r="B238" t="s">
-        <v>3508</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>3509</v>
+        <v>3546</v>
       </c>
       <c r="B239" t="s">
-        <v>3510</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>3511</v>
+        <v>3548</v>
       </c>
       <c r="B240" t="s">
-        <v>3512</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>3513</v>
+        <v>3550</v>
       </c>
       <c r="B241" t="s">
-        <v>3514</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>3515</v>
+        <v>3552</v>
       </c>
       <c r="B242" t="s">
-        <v>3516</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>3517</v>
+        <v>3554</v>
       </c>
       <c r="B243" t="s">
-        <v>3518</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>3519</v>
+        <v>3556</v>
       </c>
       <c r="B244" t="s">
-        <v>3520</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>3521</v>
+        <v>3558</v>
       </c>
       <c r="B245" t="s">
-        <v>3522</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>3523</v>
+        <v>3560</v>
       </c>
       <c r="B246" t="s">
-        <v>3524</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>3525</v>
+        <v>3562</v>
       </c>
       <c r="B247" t="s">
-        <v>3526</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>3527</v>
+        <v>3564</v>
       </c>
       <c r="B248" t="s">
-        <v>3528</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>3529</v>
+        <v>3564</v>
       </c>
       <c r="B249" t="s">
-        <v>3530</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>3531</v>
+        <v>3564</v>
       </c>
       <c r="B250" t="s">
-        <v>3532</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>3533</v>
+        <v>3564</v>
       </c>
       <c r="B251" t="s">
-        <v>3534</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>3535</v>
+        <v>3569</v>
       </c>
       <c r="B252" t="s">
-        <v>3536</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>3537</v>
+        <v>3571</v>
       </c>
       <c r="B253" t="s">
-        <v>3538</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>3539</v>
+        <v>3573</v>
       </c>
       <c r="B254" t="s">
-        <v>3540</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>3541</v>
+        <v>3575</v>
       </c>
       <c r="B255" t="s">
-        <v>3542</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>3543</v>
+        <v>3577</v>
       </c>
       <c r="B256" t="s">
-        <v>3544</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>3545</v>
+        <v>3579</v>
       </c>
       <c r="B257" t="s">
-        <v>3546</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2">
-      <c r="A258" t="s">
-        <v>3547</v>
-      </c>
-      <c r="B258" t="s">
-        <v>3548</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2">
-      <c r="A259" t="s">
-        <v>3549</v>
-      </c>
-      <c r="B259" t="s">
-        <v>3550</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2">
-      <c r="A260" t="s">
-        <v>3551</v>
-      </c>
-      <c r="B260" t="s">
-        <v>3552</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2">
-      <c r="A261" t="s">
-        <v>3553</v>
-      </c>
-      <c r="B261" t="s">
-        <v>3554</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2">
-      <c r="A262" t="s">
-        <v>3555</v>
-      </c>
-      <c r="B262" t="s">
-        <v>3556</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" t="s">
-        <v>3557</v>
-      </c>
-      <c r="B263" t="s">
-        <v>3558</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2">
-      <c r="A264" t="s">
-        <v>3557</v>
-      </c>
-      <c r="B264" t="s">
-        <v>3559</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2">
-      <c r="A265" t="s">
-        <v>3557</v>
-      </c>
-      <c r="B265" t="s">
-        <v>3560</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2">
-      <c r="A266" t="s">
-        <v>3557</v>
-      </c>
-      <c r="B266" t="s">
-        <v>3561</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2">
-      <c r="A267" t="s">
-        <v>3562</v>
-      </c>
-      <c r="B267" t="s">
-        <v>3563</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2">
-      <c r="A268" t="s">
-        <v>3564</v>
-      </c>
-      <c r="B268" t="s">
-        <v>3565</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2">
-      <c r="A269" t="s">
-        <v>3566</v>
-      </c>
-      <c r="B269" t="s">
-        <v>3567</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2">
-      <c r="A270" t="s">
-        <v>3568</v>
-      </c>
-      <c r="B270" t="s">
-        <v>3569</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2">
-      <c r="A271" t="s">
-        <v>3570</v>
-      </c>
-      <c r="B271" t="s">
-        <v>3571</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2">
-      <c r="A272" t="s">
-        <v>3572</v>
-      </c>
-      <c r="B272" t="s">
-        <v>3573</v>
+        <v>3580</v>
       </c>
     </row>
   </sheetData>

--- a/Reference/Ability.xlsx
+++ b/Reference/Ability.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8010" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="28245" windowHeight="12690" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Energized 1.0.23" sheetId="5" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4600" uniqueCount="3581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4577" uniqueCount="3583">
   <si>
     <t>- Volume Up: Power of sound based moves are increased by 30%. Used by Loudred/Exploud.</t>
   </si>
@@ -8555,6 +8555,33 @@
     <t>晴天时，速度翻倍。</t>
   </si>
   <si>
+    <t xml:space="preserve">Cloud Nine </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminates the effects of weather. </t>
+  </si>
+  <si>
+    <t>在场时，使天气失效。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color Change </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Pokémon's type becomes the type of the move used on it. </t>
+  </si>
+  <si>
+    <t>被伤害类技能攻击后，会变成这个技能的属性。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compound Eyes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Pokémon's compound eyes boost its accuracy. </t>
+  </si>
+  <si>
+    <t>使用技能时，命中率增加30%。</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cute Charm </t>
   </si>
   <si>
@@ -8672,13 +8699,40 @@
     <t>物攻能力等级不会被对手减少。</t>
   </si>
   <si>
+    <t xml:space="preserve">Immunity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Pokémon's immune system prevents it from being poisoned. </t>
+  </si>
+  <si>
+    <t>不会中毒，即使中毒了也会立刻解除。</t>
+  </si>
+  <si>
     <t xml:space="preserve">Inner Focus </t>
   </si>
   <si>
     <t xml:space="preserve">The Pokémon's intense focus prevents it from flinching or being affected by Intimidate. </t>
   </si>
   <si>
-    <t>免疫畏缩；不会受到威吓的影响。</t>
+    <t>不会畏缩；不会受到威吓的影响。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insomnia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Pokémon's insomnia prevents it from falling asleep. </t>
+  </si>
+  <si>
+    <t>不会睡眠，即使睡眠了也会立刻解除。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intimidate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the Pokémon enters a battle, it intimidates opposing Pokémon and makes them cower, lowering their Attack stats. </t>
+  </si>
+  <si>
+    <t>出场时，使对手的物攻能力等级减少1级。</t>
   </si>
   <si>
     <t xml:space="preserve">Justified </t>
@@ -8714,7 +8768,7 @@
     <t xml:space="preserve">The Pokémon's limber body prevents it from being paralyzed. </t>
   </si>
   <si>
-    <t>免疫麻痹，即使麻痹了也会立刻解除。</t>
+    <t>不会麻痹，即使麻痹了也会立刻解除。</t>
   </si>
   <si>
     <t xml:space="preserve">Magic Guard </t>
@@ -8777,7 +8831,16 @@
     <t xml:space="preserve">The Pokémon takes no damage from sandstorms. It is also protected from the effects of powders and spores. </t>
   </si>
   <si>
-    <t>不会受到沙暴和冰雹的伤害；免疫粉末类效果。</t>
+    <t>不会受到沙暴和冰雹的伤害；不会受到粉末类效果的影响。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own Tempo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Pokémon sticks to its own tempo, preventing it from becoming confused or being affected by Intimidate. </t>
+  </si>
+  <si>
+    <t>不会混乱，即使混乱了也会立刻解除；不会受到威吓的影响。</t>
   </si>
   <si>
     <t>Paranoid</t>
@@ -8897,6 +8960,15 @@
     <t>被草属性技能命中时，不仅不会受到影响，还会使物攻能力等级增加1级。</t>
   </si>
   <si>
+    <t xml:space="preserve">Shadow Tag </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Pokémon steps on the opposing Pokémon's shadows to prevent them from fleeing or switching out. </t>
+  </si>
+  <si>
+    <t>使对手的非踩影和非幽灵属性精灵无法逃走。</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sharpness </t>
   </si>
   <si>
@@ -8912,6 +8984,15 @@
     <t xml:space="preserve">A hard shell protects the Pokémon from critical hits. </t>
   </si>
   <si>
+    <t xml:space="preserve">Shield Dust </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protective dust shields the Pokémon from the additional effects of moves. </t>
+  </si>
+  <si>
+    <t>被攻击时，不会受到对手的技能或者特性的附加效果的影响。</t>
+  </si>
+  <si>
     <t xml:space="preserve">Slush Rush </t>
   </si>
   <si>
@@ -8969,6 +9050,15 @@
     <t>攻击时，有10%的概率使目标畏缩。</t>
   </si>
   <si>
+    <t xml:space="preserve">Sticky Hold </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Pokémon's held items cling to its sticky body and cannot be removed by other Pokémon. </t>
+  </si>
+  <si>
+    <t>携带的物品不会被对手以任何方式失去。</t>
+  </si>
+  <si>
     <t xml:space="preserve">Storm Drain </t>
   </si>
   <si>
@@ -8996,6 +9086,15 @@
     <t>免疫一击必杀类技能；在满HP被攻击时，至少会保留1HP。</t>
   </si>
   <si>
+    <t xml:space="preserve">Suction Cups </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Pokémon uses suction cups to stay in one spot. This protects it from moves and items that would force it to switch out. </t>
+  </si>
+  <si>
+    <t>不会被对手强制换下场。</t>
+  </si>
+  <si>
     <t>Swift Stomps</t>
   </si>
   <si>
@@ -9032,6 +9131,15 @@
     <t>中毒时，物攻增加50%。</t>
   </si>
   <si>
+    <t xml:space="preserve">Toxic Chain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The power of the Pokémon's toxic chain may badly poison any target the Pokémon hits with a move. </t>
+  </si>
+  <si>
+    <t>攻击时，有30%的概率使目标陷入剧毒。</t>
+  </si>
+  <si>
     <t>Unfazed</t>
   </si>
   <si>
@@ -9041,6 +9149,15 @@
     <t>被效果一般的技能攻击时，受到的伤害减少20%。</t>
   </si>
   <si>
+    <t xml:space="preserve">Vital Spirit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Pokémon is full of vitality, and that prevents it from falling asleep. </t>
+  </si>
+  <si>
+    <t>不会睡眠。</t>
+  </si>
+  <si>
     <t xml:space="preserve">Volt Absorb </t>
   </si>
   <si>
@@ -9068,7 +9185,7 @@
     <t>被变化类技能攻击时，该技能的命中率减半。</t>
   </si>
   <si>
-    <t>本系技能的伤害增加33%。</t>
+    <t>本属性技能的伤害增加33%。</t>
   </si>
   <si>
     <t>在场时，任何天气都会失效。</t>
@@ -9077,10 +9194,10 @@
     <t>被伤害类技能攻击后，物攻能力等级增加一级，如果被命中要害，则增加到最大等级。</t>
   </si>
   <si>
-    <t>使对手的非幽灵系和处于地面上的精灵无法逃走和替换。</t>
-  </si>
-  <si>
-    <t>火系技能威力增加20%，当HP少于33%时，威力增加量增加到50%。</t>
+    <t>使对手的非幽灵属性和处于地面上的精灵无法逃走和替换。</t>
+  </si>
+  <si>
+    <t>火属性技能威力增加20%，当HP少于33%时，威力增加量增加到50%。</t>
   </si>
   <si>
     <t>免疫对手的声音类技能。</t>
@@ -9089,19 +9206,13 @@
     <t>免疫非自身的能力等级减少效果。</t>
   </si>
   <si>
-    <t>被伤害类技能攻击后，会变成这个技能的结算属性。</t>
-  </si>
-  <si>
-    <t>命中率增加30%。</t>
-  </si>
-  <si>
     <t>根据对手的物防和特防中较小的那项能力，对应地增加自己的物攻或者特攻的能力等级一级。</t>
   </si>
   <si>
     <t>出场时，开启持续8回合的晴天。</t>
   </si>
   <si>
-    <t>不会受到水系技能的影响，而是回复25%HP；受到的火系技能的伤害增加25%；回合结束时，如果是雨天则会回复12.5%HP，如果是晴天则会减少12.5%HP。</t>
+    <t>不会受到水属性技能的影响，而是回复25%HP；受到的火属性技能的伤害增加25%；回合结束时，如果是雨天则会回复12.5%HP，如果是晴天则会减少12.5%HP。</t>
   </si>
   <si>
     <t>睡眠的持续回合减少50%。</t>
@@ -9113,7 +9224,7 @@
     <t>HP少于50%时，就会吃掉携带的树果。</t>
   </si>
   <si>
-    <t>受到的火系技能的伤害减少50%；不会受到烧伤的伤害。</t>
+    <t>受到的火属性技能的伤害减少50%；不会受到烧伤的伤害。</t>
   </si>
   <si>
     <t>物攻增加100%。</t>
@@ -9131,31 +9242,22 @@
     <t>命中率绝对不会被减少；无视目标增加的回避率。</t>
   </si>
   <si>
-    <t>免疫中毒和剧毒，即使中毒或者剧毒了也会立刻解除；受到的毒系技能的伤害减少50%。</t>
-  </si>
-  <si>
-    <t>免疫睡眠，即使睡眠了也会立刻解除；使用睡觉会失败。</t>
-  </si>
-  <si>
-    <t>出场时，减少对手的物攻能力等级一级。</t>
-  </si>
-  <si>
     <t>拳类技能的威力增加30%。</t>
   </si>
   <si>
     <t>晴天时，免疫异常。</t>
   </si>
   <si>
-    <t>免疫地面系技能的影响；自身视为飞空单位；飞行系技能威力增加25%。</t>
+    <t>免疫地面属性技能的影响；自身视为飞空单位；飞行属性技能威力增加25%。</t>
   </si>
   <si>
     <t>在被吸取HP后，对手不仅不会得到回复，反而会受到同等的伤害。</t>
   </si>
   <si>
-    <t>免疫冻伤；受到的水系和冰系技能的伤害减少30%。</t>
-  </si>
-  <si>
-    <t>使对手的非幽灵系的钢系精灵无法逃走和替换。</t>
+    <t>免疫冻伤；受到的水属性和冰属性技能的伤害减少30%。</t>
+  </si>
+  <si>
+    <t>使对手的非幽灵属性的钢属性精灵无法逃走和替换。</t>
   </si>
   <si>
     <t>队友有正电或者负电时，伤害增加100%。</t>
@@ -9164,13 +9266,10 @@
     <t>该特性的精灵使用的技能和对该特性的精灵使用的技能都必定会命中。</t>
   </si>
   <si>
-    <t>所有技能的属性变成一般系；技能威力增加20%；技能至少会打出一倍效果。</t>
-  </si>
-  <si>
-    <t>草系技能威力增加20%，当HP少于33%时，威力增加量增加到50%。</t>
-  </si>
-  <si>
-    <t>免疫混乱、威吓和惊吓，即使混乱了也会立刻解除。</t>
+    <t>所有技能的属性变成一般属性；技能威力增加20%；技能至少会打出一倍效果。</t>
+  </si>
+  <si>
+    <t>草属性技能威力增加20%，当HP少于33%时，威力增加量增加到50%。</t>
   </si>
   <si>
     <t>May pick up items.</t>
@@ -9179,7 +9278,7 @@
     <t>没有携带物品时，回合结束时会获得当回合其他精灵消耗的物品。</t>
   </si>
   <si>
-    <t>中毒或者剧毒时，回合结束时HP不仅不会减少，反而会回复12.5%HP。</t>
+    <t>中毒时，回合结束时HP不仅不会减少，反而会回复12.5%HP。</t>
   </si>
   <si>
     <t>成为非队友使用的技能的目标时，该技能需要多消耗1PP；出场时，清除场上精灵增加的能力等级。</t>
@@ -9206,15 +9305,9 @@
     <t>技能的附加效果发动的概率增加100%。</t>
   </si>
   <si>
-    <t>使对手的非踩影和非幽灵系精灵无法逃走和替换。</t>
-  </si>
-  <si>
     <t>回合结束时，有33%概率回复异常。</t>
   </si>
   <si>
-    <t>免疫对手技能的附加效果和出场陷阱；对手的毒手不会发动。</t>
-  </si>
-  <si>
     <t>能力等级增加或者减少的量增加100%。</t>
   </si>
   <si>
@@ -9236,13 +9329,7 @@
     <t>畏缩时，速度能力等级增加一级。</t>
   </si>
   <si>
-    <t>携带的物品不会以任何方式失去。</t>
-  </si>
-  <si>
-    <t>不会被对手强制换下场。</t>
-  </si>
-  <si>
-    <t>虫系技能威力增加20%，当HP少于33%时，威力增加量增加到50%。</t>
+    <t>虫属性技能威力增加20%，当HP少于33%时，威力增加量增加到50%。</t>
   </si>
   <si>
     <t>对手使自身陷入异常时，对手也会陷入同样的异常。</t>
@@ -9254,10 +9341,10 @@
     <t>使用基础威力小于或者等于60的技能时，技能威力增加50%。</t>
   </si>
   <si>
-    <t>受到的火系和冰系技能的伤害减少50%。</t>
-  </si>
-  <si>
-    <t>水系技能威力增加20%，当HP少于33%时，威力增加量增加到50%。</t>
+    <t>受到的火属性和冰属性技能的伤害减少50%。</t>
+  </si>
+  <si>
+    <t>水属性技能威力增加20%，当HP少于33%时，威力增加量增加到50%。</t>
   </si>
   <si>
     <t>复制对手的特性，此特性变为复制到的特性。</t>
@@ -9269,75 +9356,12 @@
     <t>当失去携带的物品后，速度增加100%。</t>
   </si>
   <si>
-    <t>免疫睡眠；使用睡觉会失败；使用格斗系技能会回复异常。</t>
-  </si>
-  <si>
     <t>免疫烧伤，即使烧伤了也会立刻解除；出场时，释放水流环。</t>
   </si>
   <si>
     <t>只会受到效果拔群的技能的伤害和非直接类伤害。</t>
   </si>
   <si>
-    <t xml:space="preserve">Cloud Nine </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminates the effects of weather. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compound Eyes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Pokémon's compound eyes boost its accuracy. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insomnia </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Pokémon's insomnia prevents it from falling asleep. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Color Change </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Pokémon's type becomes the type of the move used on it. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Immunity </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Pokémon's immune system prevents it from being poisoned. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shield Dust </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protective dust shields the Pokémon from the additional effects of moves. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Own Tempo </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Pokémon sticks to its own tempo, preventing it from becoming confused or being affected by Intimidate. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suction Cups </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Pokémon uses suction cups to stay in one spot. This protects it from moves and items that would force it to switch out. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intimidate </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When the Pokémon enters a battle, it intimidates opposing Pokémon and makes them cower, lowering their Attack stats. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shadow Tag </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Pokémon steps on the opposing Pokémon's shadows to prevent them from fleeing or switching out. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Rough Skin </t>
   </si>
   <si>
@@ -9485,12 +9509,6 @@
     <t xml:space="preserve">The Pokémon transforms with the weather to change its type to Water, Fire, or Ice. </t>
   </si>
   <si>
-    <t xml:space="preserve">Sticky Hold </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Pokémon's held items cling to its sticky body and cannot be removed by other Pokémon. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Shed Skin </t>
   </si>
   <si>
@@ -9539,12 +9557,6 @@
     <t xml:space="preserve">Prevents opposing Pokémon from fleeing from battle. </t>
   </si>
   <si>
-    <t xml:space="preserve">Vital Spirit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Pokémon is full of vitality, and that prevents it from falling asleep. </t>
-  </si>
-  <si>
     <t xml:space="preserve">White Smoke </t>
   </si>
   <si>
@@ -10731,12 +10743,6 @@
   </si>
   <si>
     <t xml:space="preserve">The Pokémon's heart fills with memories, causing the Cornerstone Mask to shine and the Pokémon's Defense stat to be boosted. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Toxic Chain </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The power of the Pokémon's toxic chain may badly poison any target the Pokémon hits with a move. </t>
   </si>
   <si>
     <t xml:space="preserve">Supersweet Syrup </t>
@@ -10774,10 +10780,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -10787,13 +10793,79 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10823,46 +10895,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10885,21 +10920,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10907,22 +10928,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10934,16 +10948,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10952,7 +10958,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10970,127 +10976,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11108,7 +11000,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11120,7 +11024,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11132,12 +11126,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -11146,25 +11158,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -11194,26 +11197,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -11229,16 +11212,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -11257,152 +11260,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11412,20 +11415,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -12039,7 +12037,7 @@
   <dimension ref="A1:B340"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -26296,7 +26294,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6" outlineLevelCol="6"/>
@@ -26457,17 +26455,18 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="71.5" customWidth="1"/>
-    <col min="3" max="3" width="60.75" customWidth="1"/>
+    <col min="1" max="1" width="17.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="71.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.75" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -26504,186 +26503,186 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>2837</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>2838</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>2839</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>2840</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>2841</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>2842</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>2843</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>2844</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>2845</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>2846</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>2847</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>2848</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="1" t="s">
         <v>2849</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>2850</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>2851</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="1" t="s">
         <v>2852</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>2853</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>2854</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="1" t="s">
         <v>2855</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>2856</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>2857</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>2858</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>2859</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>2860</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>2861</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>2862</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>2863</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>2864</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>2865</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>2866</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>2867</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="1" t="s">
         <v>2868</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>2869</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>2870</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="1" t="s">
         <v>2871</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>2872</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>2873</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="1" t="s">
         <v>2874</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>2875</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="1" t="s">
         <v>2876</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="1" t="s">
         <v>2877</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>2878</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>2879</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>2880</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>2881</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="1" t="s">
         <v>2882</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>2883</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="2" t="s">
         <v>2884</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>2885</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>2886</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -26691,1300 +26690,1308 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>2888</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="1" t="s">
         <v>2889</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>2890</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>2891</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="1" t="s">
         <v>2892</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>2893</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="1" t="s">
         <v>2894</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="1" t="s">
         <v>2895</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>2896</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="1" t="s">
         <v>2897</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="1" t="s">
         <v>2898</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>2899</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="1" t="s">
         <v>2900</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="1" t="s">
         <v>2901</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>2902</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:3">
-      <c r="A26" s="3" t="s">
+    <row r="26" s="1" customFormat="1" spans="1:3">
+      <c r="A26" s="1" t="s">
         <v>2903</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="1" t="s">
         <v>2904</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="2" t="s">
         <v>2905</v>
       </c>
     </row>
-    <row r="27" customFormat="1" spans="1:3">
-      <c r="A27" s="3" t="s">
+    <row r="27" s="1" customFormat="1" spans="1:3">
+      <c r="A27" s="1" t="s">
         <v>2906</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="1" t="s">
         <v>2907</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>2908</v>
       </c>
     </row>
-    <row r="28" customFormat="1" spans="1:3">
-      <c r="A28" s="3" t="s">
+    <row r="28" s="1" customFormat="1" spans="1:3">
+      <c r="A28" s="1" t="s">
         <v>2909</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="1" t="s">
         <v>2910</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>2911</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="1:3">
-      <c r="A29" s="3" t="s">
+    <row r="29" s="1" customFormat="1" spans="1:3">
+      <c r="A29" s="1" t="s">
         <v>2912</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>2913</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>2914</v>
       </c>
     </row>
-    <row r="30" customFormat="1" spans="1:3">
-      <c r="A30" s="3" t="s">
+    <row r="30" s="1" customFormat="1" spans="1:3">
+      <c r="A30" s="1" t="s">
         <v>2915</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>2916</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="2" t="s">
         <v>2917</v>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="1:3">
-      <c r="A31" s="3" t="s">
+    <row r="31" s="1" customFormat="1" spans="1:3">
+      <c r="A31" s="1" t="s">
         <v>2918</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>2919</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>2920</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="1:3">
-      <c r="A32" s="3" t="s">
+    <row r="32" s="1" customFormat="1" spans="1:3">
+      <c r="A32" s="1" t="s">
         <v>2921</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>2922</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>2923</v>
       </c>
     </row>
-    <row r="33" customFormat="1" spans="1:3">
-      <c r="A33" s="3" t="s">
+    <row r="33" s="1" customFormat="1" spans="1:3">
+      <c r="A33" s="1" t="s">
         <v>2924</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="1" t="s">
         <v>2925</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>2926</v>
       </c>
     </row>
-    <row r="34" customFormat="1" spans="1:3">
-      <c r="A34" s="3" t="s">
+    <row r="34" s="1" customFormat="1" spans="1:3">
+      <c r="A34" s="1" t="s">
         <v>2927</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>2928</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>2929</v>
       </c>
     </row>
-    <row r="35" customFormat="1" spans="1:3">
-      <c r="A35" s="3" t="s">
+    <row r="35" s="1" customFormat="1" spans="1:3">
+      <c r="A35" s="1" t="s">
         <v>2930</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>2931</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>2932</v>
       </c>
     </row>
-    <row r="36" customFormat="1" spans="1:3">
-      <c r="A36" s="3" t="s">
+    <row r="36" s="1" customFormat="1" spans="1:3">
+      <c r="A36" s="1" t="s">
         <v>2933</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>2934</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>2935</v>
       </c>
     </row>
-    <row r="37" customFormat="1" spans="1:3">
-      <c r="A37" s="3" t="s">
+    <row r="37" s="1" customFormat="1" spans="1:3">
+      <c r="A37" s="1" t="s">
         <v>2936</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="1" t="s">
         <v>2937</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>2938</v>
       </c>
     </row>
-    <row r="38" customFormat="1" spans="1:3">
-      <c r="A38" s="3" t="s">
+    <row r="38" s="1" customFormat="1" spans="1:3">
+      <c r="A38" s="1" t="s">
         <v>2939</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="1" t="s">
         <v>2940</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>2941</v>
       </c>
     </row>
-    <row r="39" customFormat="1" spans="1:3">
-      <c r="A39" s="3" t="s">
+    <row r="39" s="1" customFormat="1" spans="1:3">
+      <c r="A39" s="1" t="s">
         <v>2942</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="1" t="s">
         <v>2943</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>2944</v>
       </c>
     </row>
-    <row r="40" customFormat="1" spans="1:3">
-      <c r="A40" s="3" t="s">
+    <row r="40" s="1" customFormat="1" spans="1:3">
+      <c r="A40" s="1" t="s">
         <v>2945</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="1" t="s">
         <v>2946</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="2" t="s">
         <v>2947</v>
       </c>
     </row>
-    <row r="41" customFormat="1" spans="1:3">
-      <c r="A41" s="3" t="s">
+    <row r="41" s="1" customFormat="1" spans="1:3">
+      <c r="A41" s="1" t="s">
         <v>2948</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="1" t="s">
         <v>2949</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>2950</v>
       </c>
     </row>
-    <row r="42" customFormat="1" spans="1:3">
-      <c r="A42" s="3" t="s">
+    <row r="42" s="1" customFormat="1" spans="1:3">
+      <c r="A42" s="1" t="s">
         <v>2951</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="1" t="s">
         <v>2952</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="2" t="s">
         <v>2953</v>
       </c>
     </row>
-    <row r="43" customFormat="1" spans="1:3">
-      <c r="A43" s="3" t="s">
+    <row r="43" s="1" customFormat="1" spans="1:3">
+      <c r="A43" s="1" t="s">
         <v>2954</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="1" t="s">
         <v>2955</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="2" t="s">
         <v>2956</v>
       </c>
     </row>
-    <row r="44" customFormat="1" spans="1:3">
-      <c r="A44" s="3" t="s">
+    <row r="44" s="1" customFormat="1" spans="1:3">
+      <c r="A44" s="1" t="s">
         <v>2957</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="1" t="s">
         <v>2958</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="2" t="s">
         <v>2959</v>
       </c>
     </row>
-    <row r="45" customFormat="1" spans="1:3">
-      <c r="A45" s="3" t="s">
+    <row r="45" s="1" customFormat="1" spans="1:3">
+      <c r="A45" s="1" t="s">
         <v>2960</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="1" t="s">
         <v>2961</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="2" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>2963</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>2964</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>2966</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>2972</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>2973</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>2975</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>2981</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>2984</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>2836</v>
       </c>
     </row>
-    <row r="46" customFormat="1" spans="1:3">
-      <c r="A46" s="3" t="s">
-        <v>2962</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>2963</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>2964</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:3">
-      <c r="A47" s="3" t="s">
-        <v>2965</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>2966</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>2967</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:3">
-      <c r="A48" s="3" t="s">
-        <v>2968</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>2928</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>2929</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="1:3">
-      <c r="A49" s="3" t="s">
-        <v>2969</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>2970</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>2971</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" spans="1:3">
-      <c r="A50" s="3" t="s">
-        <v>2972</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>2973</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>2974</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:3">
-      <c r="A51" s="3" t="s">
-        <v>2975</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>2976</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>2977</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:3">
-      <c r="A52" s="3" t="s">
-        <v>2978</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>2979</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:3">
-      <c r="A53" s="3" t="s">
-        <v>2981</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>2982</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>2983</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" spans="1:3">
-      <c r="A54" s="3" t="s">
-        <v>2984</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>2985</v>
-      </c>
-      <c r="C54" s="4" t="s">
+    <row r="54" s="1" customFormat="1" spans="1:3">
+      <c r="A54" s="1" t="s">
         <v>2986</v>
       </c>
-    </row>
-    <row r="55" customFormat="1" spans="1:3">
-      <c r="A55" s="3" t="s">
+      <c r="B54" s="1" t="s">
         <v>2987</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>2988</v>
       </c>
-      <c r="C55" s="4" t="s">
+    </row>
+    <row r="55" s="1" customFormat="1" spans="1:3">
+      <c r="A55" s="1" t="s">
         <v>2989</v>
       </c>
-    </row>
-    <row r="56" customFormat="1" spans="1:3">
-      <c r="A56" s="3" t="s">
+      <c r="B55" s="1" t="s">
         <v>2990</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="C55" s="2" t="s">
         <v>2991</v>
       </c>
-      <c r="C56" s="4" t="s">
+    </row>
+    <row r="56" s="1" customFormat="1" spans="1:3">
+      <c r="A56" s="1" t="s">
         <v>2992</v>
       </c>
-    </row>
-    <row r="57" customFormat="1" spans="1:3">
-      <c r="A57" s="3" t="s">
+      <c r="B56" s="1" t="s">
         <v>2993</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="C56" s="2" t="s">
         <v>2994</v>
       </c>
-      <c r="C57" s="4" t="s">
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:3">
+      <c r="A57" s="1" t="s">
         <v>2995</v>
       </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:3">
-      <c r="A58" s="3" t="s">
+      <c r="B57" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" spans="1:3">
+      <c r="A58" s="1" t="s">
         <v>2996</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="1" t="s">
         <v>2997</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="2" t="s">
         <v>2998</v>
       </c>
     </row>
-    <row r="59" customFormat="1" spans="1:3">
-      <c r="A59" s="3" t="s">
+    <row r="59" s="1" customFormat="1" spans="1:3">
+      <c r="A59" s="1" t="s">
         <v>2999</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="1" t="s">
         <v>3000</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="2" t="s">
         <v>3001</v>
       </c>
     </row>
-    <row r="60" customFormat="1" spans="1:3">
-      <c r="A60" s="3" t="s">
+    <row r="60" s="1" customFormat="1" spans="1:3">
+      <c r="A60" s="1" t="s">
         <v>3002</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="1" t="s">
         <v>3003</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="2" t="s">
         <v>3004</v>
       </c>
     </row>
-    <row r="61" customFormat="1" spans="1:3">
-      <c r="A61" s="3" t="s">
+    <row r="61" s="1" customFormat="1" spans="1:3">
+      <c r="A61" s="1" t="s">
         <v>3005</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="1" t="s">
         <v>3006</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="2" t="s">
         <v>3007</v>
       </c>
     </row>
-    <row r="62" customFormat="1" spans="1:3">
-      <c r="A62" s="3" t="s">
+    <row r="62" s="1" customFormat="1" spans="1:3">
+      <c r="A62" s="1" t="s">
         <v>3008</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="1" t="s">
         <v>3009</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="2" t="s">
         <v>3010</v>
       </c>
     </row>
-    <row r="63" customFormat="1" spans="1:3">
-      <c r="A63" s="3" t="s">
+    <row r="63" s="1" customFormat="1" spans="1:3">
+      <c r="A63" s="1" t="s">
         <v>3011</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="1" t="s">
         <v>3012</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="2" t="s">
         <v>3013</v>
       </c>
     </row>
-    <row r="64" customFormat="1" spans="3:3">
-      <c r="C64" s="6"/>
-    </row>
-    <row r="65" spans="1:3">
+    <row r="64" s="1" customFormat="1" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>3014</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>3015</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:3">
       <c r="A65" s="1" t="s">
-        <v>527</v>
+        <v>3017</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>1702</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>3014</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>3018</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" spans="1:3">
       <c r="A66" s="1" t="s">
-        <v>563</v>
+        <v>3020</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>1626</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>3015</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>3021</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" spans="1:3">
       <c r="A67" s="1" t="s">
-        <v>549</v>
+        <v>3023</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>3016</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>3024</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>573</v>
+        <v>3026</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>3017</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>3027</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:3">
       <c r="A69" s="1" t="s">
-        <v>583</v>
+        <v>3029</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>1678</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>3018</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>3030</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:3">
       <c r="A70" s="1" t="s">
-        <v>178</v>
+        <v>3032</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>3019</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>3033</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:3">
       <c r="A71" s="1" t="s">
-        <v>655</v>
+        <v>3035</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>1642</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>3020</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>3036</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:3">
       <c r="A72" s="1" t="s">
-        <v>684</v>
+        <v>3038</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>1626</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>3015</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>3039</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" spans="1:3">
       <c r="A73" s="1" t="s">
-        <v>679</v>
+        <v>3041</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>3021</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>3042</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>721</v>
+        <v>3044</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>3022</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>3045</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="1:3">
       <c r="A75" s="1" t="s">
-        <v>539</v>
+        <v>3047</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>3023</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>3048</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="1:3">
       <c r="A76" s="1" t="s">
-        <v>575</v>
+        <v>3050</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>1682</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>3024</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>3025</v>
-      </c>
+        <v>3051</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="3:3">
+      <c r="C77" s="5"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
-        <v>619</v>
+        <v>527</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>1661</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>3026</v>
+        <v>1702</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>3053</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="1" t="s">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>3027</v>
+        <v>1626</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>3054</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>1692</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>3028</v>
+        <v>1694</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>3055</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="1" t="s">
-        <v>545</v>
+        <v>573</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>3029</v>
+        <v>1683</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>3056</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="1" t="s">
-        <v>642</v>
+        <v>583</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>3030</v>
+        <v>1678</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>3057</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="1" t="s">
-        <v>605</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1668</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>3031</v>
+        <v>178</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>3058</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>523</v>
+        <v>655</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1704</v>
+        <v>1642</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>3032</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>645</v>
+        <v>539</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>3033</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>3034</v>
+        <v>1699</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>3060</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>677</v>
+        <v>575</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>3035</v>
+        <v>1682</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>3061</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>681</v>
+        <v>541</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1628</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>3036</v>
+        <v>1698</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>3062</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>667</v>
+        <v>619</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>3037</v>
+        <v>1661</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>3063</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>537</v>
+        <v>597</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1700</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>3038</v>
+        <v>1671</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>3064</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>505</v>
+        <v>551</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>3039</v>
+        <v>1692</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>3065</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>660</v>
+        <v>545</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>3040</v>
+        <v>1696</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>3066</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>587</v>
+        <v>642</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>3041</v>
+        <v>1650</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>3067</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>3042</v>
+        <v>1668</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>3068</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>631</v>
+        <v>523</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>3043</v>
+        <v>1704</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>3069</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>599</v>
+        <v>645</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>3044</v>
+        <v>3070</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>3071</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>511</v>
+        <v>537</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>3045</v>
+        <v>1700</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>3072</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>3046</v>
+        <v>1712</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>3073</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>585</v>
+        <v>660</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1677</v>
+        <v>1639</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>3047</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>671</v>
+        <v>587</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1633</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>3048</v>
+        <v>1676</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>3075</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>3049</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>3050</v>
+        <v>1653</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>3076</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>601</v>
+        <v>631</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>3044</v>
+        <v>1655</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>3077</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>529</v>
+        <v>599</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>3051</v>
+        <v>1670</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>3078</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>3052</v>
+        <v>511</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>3079</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>567</v>
+        <v>517</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>3030</v>
+        <v>1707</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>3080</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>627</v>
+        <v>585</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>3053</v>
+        <v>1677</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>3081</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>557</v>
+        <v>609</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>3054</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>3055</v>
+        <v>3082</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>3083</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>664</v>
+        <v>601</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>3056</v>
+        <v>1670</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>3078</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>615</v>
+        <v>529</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1663</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>3057</v>
+        <v>1701</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>3084</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1658</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>3058</v>
+        <v>1659</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>3085</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>650</v>
+        <v>567</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>3059</v>
+        <v>1650</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>3067</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>665</v>
+        <v>627</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1636</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>3060</v>
+        <v>1657</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>3086</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>593</v>
+        <v>557</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>3061</v>
+        <v>3087</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>3088</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>3062</v>
+        <v>1637</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>3089</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>543</v>
+        <v>615</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>3063</v>
+        <v>1663</v>
+      </c>
+      <c r="C114" s="6" t="s">
+        <v>3090</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>525</v>
+        <v>625</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>3064</v>
+        <v>1658</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>3091</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>515</v>
+        <v>650</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1708</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>3065</v>
+        <v>1645</v>
+      </c>
+      <c r="C116" s="6" t="s">
+        <v>3092</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>553</v>
+        <v>593</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>3066</v>
+        <v>1673</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>3093</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>3067</v>
+        <v>1697</v>
+      </c>
+      <c r="C118" s="6" t="s">
+        <v>3094</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>629</v>
+        <v>525</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>3019</v>
+        <v>1703</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>3095</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>3068</v>
+        <v>1708</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>3096</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>3069</v>
+        <v>1691</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>3097</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1672</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>3070</v>
+        <v>521</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>3098</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>669</v>
+        <v>629</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>3071</v>
+        <v>1656</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>3058</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>579</v>
+        <v>509</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>1680</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>3072</v>
+        <v>510</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>3099</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>656</v>
+        <v>555</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1641</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>3073</v>
+        <v>1690</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>3100</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>3074</v>
+        <v>1680</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>3101</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>507</v>
+        <v>656</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1711</v>
+        <v>1641</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>3075</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>621</v>
+        <v>561</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1660</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>3076</v>
+        <v>1687</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>3103</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>581</v>
+        <v>507</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>3077</v>
+        <v>1711</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>3104</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>643</v>
+        <v>621</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>3078</v>
+        <v>1660</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>3105</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="B131" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>3079</v>
+        <v>581</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>3106</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>547</v>
+        <v>643</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>3080</v>
+        <v>1649</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>3107</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="1" t="s">
-        <v>571</v>
+        <v>607</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1684</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>3081</v>
+        <v>1667</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>3108</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="1" t="s">
-        <v>633</v>
+        <v>547</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>3082</v>
+        <v>1695</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>3109</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="1" t="s">
-        <v>569</v>
+        <v>633</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1642</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>3020</v>
+        <v>1654</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>3110</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B137" s="1" t="s">
         <v>1638</v>
       </c>
-      <c r="C136" s="8" t="s">
-        <v>3083</v>
+      <c r="C137" s="7" t="s">
+        <v>3111</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:C63">
-    <sortCondition ref="A63"/>
+  <sortState ref="A1:C76">
+    <sortCondition ref="A76"/>
   </sortState>
-  <conditionalFormatting sqref="B83">
+  <conditionalFormatting sqref="B93">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B103">
+  <conditionalFormatting sqref="B109">
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B122">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B131">
+  <conditionalFormatting sqref="B133">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A135:C135">
+  <conditionalFormatting sqref="A136:C136">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:A117 A137:A65565">
+  <conditionalFormatting sqref="A78:A121 A138:A65566">
     <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A65 A66 A67 A68 A69 A70 A71 A72 A73 A74 A75 A76 A77 A78 A85 A86 A87 A88 A89 A92 A95 A96 A97 A98 A101 A102 A103 A104 A105 A106 A107 A108 A109 A110 A111 A112 A113 A114 A117 A79:A80 A81:A84 A90:A91 A93:A94 A99:A100 A115:A116" errorStyle="warning">
-      <formula1>COUNTIF($A:$A,A65)&lt;2</formula1>
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A78 A79 A80 A81 A82 A83 A84 A85 A86 A87 A88 A95 A96 A99 A102 A103 A104 A105 A106 A107 A108 A109 A110 A111 A112 A113 A114 A115 A116 A117 A118 A121 A89:A90 A91:A94 A97:A98 A100:A101 A119:A120" errorStyle="warning">
+      <formula1>COUNTIF($A:$A,A78)&lt;2</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A137:A1048576" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A138:A1048576" errorStyle="warning">
       <formula1>COUNTIF($A:$A,#REF!)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -27996,10 +28003,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B257"/>
+  <dimension ref="A1:B243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
@@ -28009,2052 +28016,1948 @@
     <col min="3" max="3" width="67.875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>3112</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3113</v>
+      </c>
+    </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>3084</v>
+        <v>3114</v>
       </c>
       <c r="B2" t="s">
-        <v>3085</v>
+        <v>3115</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3086</v>
+        <v>3116</v>
       </c>
       <c r="B3" t="s">
-        <v>3087</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3088</v>
+        <v>3118</v>
       </c>
       <c r="B4" t="s">
-        <v>3089</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>3090</v>
+        <v>3120</v>
       </c>
       <c r="B5" t="s">
-        <v>3091</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>3092</v>
+        <v>3122</v>
       </c>
       <c r="B6" t="s">
-        <v>3093</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>3094</v>
+        <v>3124</v>
       </c>
       <c r="B7" t="s">
-        <v>3095</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>3096</v>
+        <v>3126</v>
       </c>
       <c r="B8" t="s">
-        <v>3097</v>
+        <v>3127</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>3098</v>
+        <v>3128</v>
       </c>
       <c r="B9" t="s">
-        <v>3099</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>3100</v>
+        <v>3130</v>
       </c>
       <c r="B10" t="s">
-        <v>3101</v>
+        <v>3131</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>3102</v>
+        <v>3132</v>
       </c>
       <c r="B11" t="s">
-        <v>3103</v>
+        <v>3133</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>3104</v>
+        <v>3134</v>
       </c>
       <c r="B12" t="s">
-        <v>3105</v>
+        <v>3135</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>3106</v>
+        <v>3136</v>
       </c>
       <c r="B13" t="s">
-        <v>3107</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>3108</v>
+        <v>3138</v>
       </c>
       <c r="B14" t="s">
-        <v>3109</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>3110</v>
+        <v>3140</v>
       </c>
       <c r="B15" t="s">
-        <v>3111</v>
+        <v>3141</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>3112</v>
+        <v>3142</v>
       </c>
       <c r="B16" t="s">
-        <v>3113</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>3114</v>
+        <v>3144</v>
       </c>
       <c r="B17" t="s">
-        <v>3115</v>
+        <v>3145</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>3116</v>
+        <v>3146</v>
       </c>
       <c r="B18" t="s">
-        <v>3117</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>3118</v>
+        <v>3148</v>
       </c>
       <c r="B19" t="s">
-        <v>3119</v>
+        <v>3149</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>3120</v>
+        <v>3150</v>
       </c>
       <c r="B20" t="s">
-        <v>3121</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>3122</v>
+        <v>3152</v>
       </c>
       <c r="B21" t="s">
-        <v>3123</v>
+        <v>3153</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>3124</v>
+        <v>3154</v>
       </c>
       <c r="B22" t="s">
-        <v>3125</v>
+        <v>3155</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>3126</v>
+        <v>3156</v>
       </c>
       <c r="B23" t="s">
-        <v>3127</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>3128</v>
+        <v>3158</v>
       </c>
       <c r="B24" t="s">
-        <v>3129</v>
+        <v>3157</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>3130</v>
+        <v>3159</v>
       </c>
       <c r="B25" t="s">
-        <v>3131</v>
+        <v>3160</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>3132</v>
+        <v>3161</v>
       </c>
       <c r="B26" t="s">
-        <v>3133</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>3134</v>
+        <v>3163</v>
       </c>
       <c r="B27" t="s">
-        <v>3135</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>3136</v>
+        <v>3165</v>
       </c>
       <c r="B28" t="s">
-        <v>3137</v>
+        <v>3166</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>3138</v>
+        <v>3167</v>
       </c>
       <c r="B29" t="s">
-        <v>3139</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>3140</v>
+        <v>3169</v>
       </c>
       <c r="B30" t="s">
-        <v>3141</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>3142</v>
+        <v>3171</v>
       </c>
       <c r="B31" t="s">
-        <v>3143</v>
+        <v>3172</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>3144</v>
+        <v>3173</v>
       </c>
       <c r="B32" t="s">
-        <v>3145</v>
+        <v>3174</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>3146</v>
+        <v>3175</v>
       </c>
       <c r="B33" t="s">
-        <v>3147</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>3148</v>
+        <v>3177</v>
       </c>
       <c r="B34" t="s">
-        <v>3149</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>3150</v>
+        <v>3179</v>
       </c>
       <c r="B35" t="s">
-        <v>3149</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>3151</v>
+        <v>3181</v>
       </c>
       <c r="B36" t="s">
-        <v>3152</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>3153</v>
+        <v>3182</v>
       </c>
       <c r="B37" t="s">
-        <v>3154</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>3155</v>
+        <v>3184</v>
       </c>
       <c r="B38" t="s">
-        <v>3156</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>3157</v>
+        <v>3186</v>
       </c>
       <c r="B39" t="s">
-        <v>3158</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>3159</v>
+        <v>3188</v>
       </c>
       <c r="B40" t="s">
-        <v>3160</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>3161</v>
+        <v>3190</v>
       </c>
       <c r="B41" t="s">
-        <v>3162</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>3163</v>
+        <v>3192</v>
       </c>
       <c r="B42" t="s">
-        <v>3164</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>3165</v>
+        <v>3194</v>
       </c>
       <c r="B43" t="s">
-        <v>3166</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>3167</v>
+        <v>3196</v>
       </c>
       <c r="B44" t="s">
-        <v>3168</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>3169</v>
+        <v>3198</v>
       </c>
       <c r="B45" t="s">
-        <v>3170</v>
+        <v>3199</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>3171</v>
+        <v>3200</v>
       </c>
       <c r="B46" t="s">
-        <v>3172</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>3173</v>
+        <v>3202</v>
       </c>
       <c r="B47" t="s">
-        <v>3174</v>
+        <v>3203</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>3175</v>
+        <v>3204</v>
       </c>
       <c r="B48" t="s">
-        <v>3176</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>3177</v>
+        <v>3206</v>
       </c>
       <c r="B49" t="s">
-        <v>3085</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>3178</v>
+        <v>3208</v>
       </c>
       <c r="B50" t="s">
-        <v>3179</v>
+        <v>3209</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>3180</v>
+        <v>3210</v>
       </c>
       <c r="B51" t="s">
-        <v>3181</v>
+        <v>3211</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>3182</v>
+        <v>3212</v>
       </c>
       <c r="B52" t="s">
-        <v>3183</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>3184</v>
+        <v>3214</v>
       </c>
       <c r="B53" t="s">
-        <v>3185</v>
+        <v>3215</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>3186</v>
+        <v>3216</v>
       </c>
       <c r="B54" t="s">
-        <v>3187</v>
+        <v>3217</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>3188</v>
+        <v>3218</v>
       </c>
       <c r="B55" t="s">
-        <v>3189</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>3190</v>
+        <v>3220</v>
       </c>
       <c r="B56" t="s">
-        <v>3191</v>
+        <v>3221</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>3192</v>
+        <v>3222</v>
       </c>
       <c r="B57" t="s">
-        <v>3193</v>
+        <v>3223</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>3194</v>
+        <v>3224</v>
       </c>
       <c r="B58" t="s">
-        <v>3195</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>3196</v>
+        <v>3226</v>
       </c>
       <c r="B59" t="s">
-        <v>3197</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>3198</v>
+        <v>3228</v>
       </c>
       <c r="B60" t="s">
-        <v>3199</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>3200</v>
+        <v>3230</v>
       </c>
       <c r="B61" t="s">
-        <v>3201</v>
+        <v>3231</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>3202</v>
+        <v>3232</v>
       </c>
       <c r="B62" t="s">
-        <v>3203</v>
+        <v>3233</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>3204</v>
+        <v>3234</v>
       </c>
       <c r="B63" t="s">
-        <v>3205</v>
+        <v>3235</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>3206</v>
+        <v>3236</v>
       </c>
       <c r="B64" t="s">
-        <v>3207</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>3208</v>
+        <v>3238</v>
       </c>
       <c r="B65" t="s">
-        <v>3209</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>3210</v>
+        <v>3240</v>
       </c>
       <c r="B66" t="s">
-        <v>3211</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>3212</v>
+        <v>3242</v>
       </c>
       <c r="B67" t="s">
-        <v>3213</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>3214</v>
+        <v>3244</v>
       </c>
       <c r="B68" t="s">
-        <v>3215</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>3216</v>
+        <v>3246</v>
       </c>
       <c r="B69" t="s">
-        <v>3217</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>3218</v>
+        <v>3247</v>
       </c>
       <c r="B70" t="s">
-        <v>3219</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>3220</v>
+        <v>3249</v>
       </c>
       <c r="B71" t="s">
-        <v>3221</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>3222</v>
+        <v>3251</v>
       </c>
       <c r="B72" t="s">
-        <v>3223</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>3224</v>
+        <v>3253</v>
       </c>
       <c r="B73" t="s">
-        <v>3225</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>3226</v>
+        <v>3255</v>
       </c>
       <c r="B74" t="s">
-        <v>3227</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>3228</v>
+        <v>3257</v>
       </c>
       <c r="B75" t="s">
-        <v>3229</v>
+        <v>3258</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>3230</v>
+        <v>3259</v>
       </c>
       <c r="B76" t="s">
-        <v>3231</v>
+        <v>3260</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>3232</v>
+        <v>3261</v>
       </c>
       <c r="B77" t="s">
-        <v>3233</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>3234</v>
+        <v>3263</v>
       </c>
       <c r="B78" t="s">
-        <v>3235</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>3236</v>
+        <v>3265</v>
       </c>
       <c r="B79" t="s">
-        <v>3237</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>3238</v>
+        <v>3267</v>
       </c>
       <c r="B80" t="s">
-        <v>3239</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>3240</v>
+        <v>3269</v>
       </c>
       <c r="B81" t="s">
-        <v>3241</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>3242</v>
+        <v>3271</v>
       </c>
       <c r="B82" t="s">
-        <v>3235</v>
+        <v>3272</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>3243</v>
+        <v>3273</v>
       </c>
       <c r="B83" t="s">
-        <v>3244</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>3245</v>
+        <v>3275</v>
       </c>
       <c r="B84" t="s">
-        <v>3246</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>3247</v>
+        <v>3277</v>
       </c>
       <c r="B85" t="s">
-        <v>3248</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>3249</v>
+        <v>3279</v>
       </c>
       <c r="B86" t="s">
-        <v>3250</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>3251</v>
+        <v>3281</v>
       </c>
       <c r="B87" t="s">
-        <v>3252</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>3253</v>
+        <v>3283</v>
       </c>
       <c r="B88" t="s">
-        <v>3254</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>3255</v>
+        <v>3285</v>
       </c>
       <c r="B89" t="s">
-        <v>3256</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>3257</v>
+        <v>3287</v>
       </c>
       <c r="B90" t="s">
-        <v>3258</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>3259</v>
+        <v>3289</v>
       </c>
       <c r="B91" t="s">
-        <v>3260</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>3261</v>
+        <v>3291</v>
       </c>
       <c r="B92" t="s">
-        <v>3262</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>3263</v>
+        <v>3293</v>
       </c>
       <c r="B93" t="s">
-        <v>3264</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>3265</v>
+        <v>3295</v>
       </c>
       <c r="B94" t="s">
-        <v>3266</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>3267</v>
+        <v>3297</v>
       </c>
       <c r="B95" t="s">
-        <v>3268</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>3269</v>
+        <v>3299</v>
       </c>
       <c r="B96" t="s">
-        <v>3270</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>3271</v>
+        <v>3301</v>
       </c>
       <c r="B97" t="s">
-        <v>3272</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>3273</v>
+        <v>3303</v>
       </c>
       <c r="B98" t="s">
-        <v>3274</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>3275</v>
+        <v>3305</v>
       </c>
       <c r="B99" t="s">
-        <v>3276</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>3277</v>
+        <v>3307</v>
       </c>
       <c r="B100" t="s">
-        <v>3278</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>3279</v>
+        <v>3309</v>
       </c>
       <c r="B101" t="s">
-        <v>3280</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>3281</v>
+        <v>3311</v>
       </c>
       <c r="B102" t="s">
-        <v>3282</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>3283</v>
+        <v>3313</v>
       </c>
       <c r="B103" t="s">
-        <v>3284</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>3285</v>
+        <v>3314</v>
       </c>
       <c r="B104" t="s">
-        <v>3286</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>3287</v>
+        <v>3315</v>
       </c>
       <c r="B105" t="s">
-        <v>3288</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>3289</v>
+        <v>3317</v>
       </c>
       <c r="B106" t="s">
-        <v>3290</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>3291</v>
+        <v>3319</v>
       </c>
       <c r="B107" t="s">
-        <v>3292</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>3293</v>
+        <v>3321</v>
       </c>
       <c r="B108" t="s">
-        <v>3294</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>3295</v>
+        <v>3323</v>
       </c>
       <c r="B109" t="s">
-        <v>3296</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>3297</v>
+        <v>3325</v>
       </c>
       <c r="B110" t="s">
-        <v>3298</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>3299</v>
+        <v>3327</v>
       </c>
       <c r="B111" t="s">
-        <v>3300</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>3301</v>
+        <v>3329</v>
       </c>
       <c r="B112" t="s">
-        <v>3302</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>3303</v>
+        <v>3331</v>
       </c>
       <c r="B113" t="s">
-        <v>3304</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>3305</v>
+        <v>3333</v>
       </c>
       <c r="B114" t="s">
-        <v>3306</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>3307</v>
+        <v>3335</v>
       </c>
       <c r="B115" t="s">
-        <v>3308</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>3309</v>
+        <v>3337</v>
       </c>
       <c r="B116" t="s">
-        <v>3223</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>3310</v>
+        <v>3339</v>
       </c>
       <c r="B117" t="s">
-        <v>3223</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>3311</v>
+        <v>3341</v>
       </c>
       <c r="B118" t="s">
-        <v>3312</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>3313</v>
+        <v>3343</v>
       </c>
       <c r="B119" t="s">
-        <v>3314</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>3315</v>
+        <v>3345</v>
       </c>
       <c r="B120" t="s">
-        <v>3316</v>
+        <v>3346</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>3317</v>
+        <v>3347</v>
       </c>
       <c r="B121" t="s">
-        <v>3318</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>3319</v>
+        <v>3349</v>
       </c>
       <c r="B122" t="s">
-        <v>3320</v>
+        <v>3350</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>3321</v>
+        <v>3351</v>
       </c>
       <c r="B123" t="s">
-        <v>3322</v>
+        <v>3352</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>3323</v>
+        <v>3353</v>
       </c>
       <c r="B124" t="s">
-        <v>3324</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>3325</v>
+        <v>3355</v>
       </c>
       <c r="B125" t="s">
-        <v>3326</v>
+        <v>3356</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>3327</v>
+        <v>3357</v>
       </c>
       <c r="B126" t="s">
-        <v>3328</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>3329</v>
+        <v>3359</v>
       </c>
       <c r="B127" t="s">
-        <v>3330</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>3331</v>
+        <v>3361</v>
       </c>
       <c r="B128" t="s">
-        <v>3332</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>3333</v>
+        <v>3363</v>
       </c>
       <c r="B129" t="s">
-        <v>3334</v>
+        <v>3364</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>3335</v>
+        <v>3365</v>
       </c>
       <c r="B130" t="s">
-        <v>3336</v>
+        <v>3366</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>3337</v>
+        <v>3367</v>
       </c>
       <c r="B131" t="s">
-        <v>3338</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>3339</v>
+        <v>3369</v>
       </c>
       <c r="B132" t="s">
-        <v>3340</v>
+        <v>3370</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>3341</v>
+        <v>3371</v>
       </c>
       <c r="B133" t="s">
-        <v>3342</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>3343</v>
+        <v>3373</v>
       </c>
       <c r="B134" t="s">
-        <v>3344</v>
+        <v>3374</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>3345</v>
+        <v>3375</v>
       </c>
       <c r="B135" t="s">
-        <v>3346</v>
+        <v>3376</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>3347</v>
+        <v>3377</v>
       </c>
       <c r="B136" t="s">
-        <v>3348</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>3349</v>
+        <v>3379</v>
       </c>
       <c r="B137" t="s">
-        <v>3350</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>3351</v>
+        <v>3381</v>
       </c>
       <c r="B138" t="s">
-        <v>3352</v>
+        <v>3382</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>3353</v>
+        <v>3383</v>
       </c>
       <c r="B139" t="s">
-        <v>3354</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>3355</v>
+        <v>3385</v>
       </c>
       <c r="B140" t="s">
-        <v>3356</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>3357</v>
+        <v>3387</v>
       </c>
       <c r="B141" t="s">
-        <v>3358</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>3359</v>
+        <v>3389</v>
       </c>
       <c r="B142" t="s">
-        <v>3360</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>3361</v>
+        <v>3391</v>
       </c>
       <c r="B143" t="s">
-        <v>3362</v>
+        <v>3392</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>3363</v>
+        <v>3393</v>
       </c>
       <c r="B144" t="s">
-        <v>3364</v>
+        <v>3394</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>3365</v>
+        <v>3395</v>
       </c>
       <c r="B145" t="s">
-        <v>3366</v>
+        <v>3396</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>3367</v>
+        <v>3397</v>
       </c>
       <c r="B146" t="s">
-        <v>3368</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>3369</v>
+        <v>3399</v>
       </c>
       <c r="B147" t="s">
-        <v>3370</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>3371</v>
+        <v>3401</v>
       </c>
       <c r="B148" t="s">
-        <v>3372</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>3373</v>
+        <v>3403</v>
       </c>
       <c r="B149" t="s">
-        <v>3374</v>
+        <v>3404</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>3375</v>
+        <v>3405</v>
       </c>
       <c r="B150" t="s">
-        <v>3376</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>3377</v>
+        <v>3407</v>
       </c>
       <c r="B151" t="s">
-        <v>3378</v>
+        <v>3408</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>3379</v>
+        <v>3409</v>
       </c>
       <c r="B152" t="s">
-        <v>3380</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>3381</v>
+        <v>3411</v>
       </c>
       <c r="B153" t="s">
-        <v>3382</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>3383</v>
+        <v>3413</v>
       </c>
       <c r="B154" t="s">
-        <v>3384</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>3385</v>
+        <v>3415</v>
       </c>
       <c r="B155" t="s">
-        <v>3386</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>3387</v>
+        <v>3417</v>
       </c>
       <c r="B156" t="s">
-        <v>3388</v>
+        <v>3418</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>3389</v>
+        <v>3419</v>
       </c>
       <c r="B157" t="s">
-        <v>3390</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>3391</v>
+        <v>3421</v>
       </c>
       <c r="B158" t="s">
-        <v>3392</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>3393</v>
+        <v>3422</v>
       </c>
       <c r="B159" t="s">
-        <v>3394</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>3395</v>
+        <v>3424</v>
       </c>
       <c r="B160" t="s">
-        <v>3396</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>3397</v>
+        <v>3425</v>
       </c>
       <c r="B161" t="s">
-        <v>3398</v>
+        <v>3426</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>3399</v>
+        <v>3427</v>
       </c>
       <c r="B162" t="s">
-        <v>3400</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>3401</v>
+        <v>3429</v>
       </c>
       <c r="B163" t="s">
-        <v>3402</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>3403</v>
+        <v>3431</v>
       </c>
       <c r="B164" t="s">
-        <v>3404</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>3405</v>
+        <v>3433</v>
       </c>
       <c r="B165" t="s">
-        <v>3406</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>3407</v>
+        <v>3435</v>
       </c>
       <c r="B166" t="s">
-        <v>3408</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>3409</v>
+        <v>3437</v>
       </c>
       <c r="B167" t="s">
-        <v>3410</v>
+        <v>3121</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>3411</v>
+        <v>3438</v>
       </c>
       <c r="B168" t="s">
-        <v>3412</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>3413</v>
+        <v>3439</v>
       </c>
       <c r="B169" t="s">
-        <v>3414</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>3415</v>
+        <v>3440</v>
       </c>
       <c r="B170" t="s">
-        <v>3416</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>3417</v>
+        <v>3442</v>
       </c>
       <c r="B171" t="s">
-        <v>3344</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>3418</v>
+        <v>3444</v>
       </c>
       <c r="B172" t="s">
-        <v>3419</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>3420</v>
+        <v>3446</v>
       </c>
       <c r="B173" t="s">
-        <v>3419</v>
+        <v>3322</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>3421</v>
+        <v>3447</v>
       </c>
       <c r="B174" t="s">
-        <v>3422</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>3423</v>
+        <v>3449</v>
       </c>
       <c r="B175" t="s">
-        <v>3424</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>3425</v>
+        <v>3451</v>
       </c>
       <c r="B176" t="s">
-        <v>3426</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>3427</v>
+        <v>3453</v>
       </c>
       <c r="B177" t="s">
-        <v>3428</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>3429</v>
+        <v>3455</v>
       </c>
       <c r="B178" t="s">
-        <v>3430</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>3431</v>
+        <v>3457</v>
       </c>
       <c r="B179" t="s">
-        <v>3432</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>3433</v>
+        <v>3459</v>
       </c>
       <c r="B180" t="s">
-        <v>3113</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>3434</v>
+        <v>3461</v>
       </c>
       <c r="B181" t="s">
-        <v>3276</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>3435</v>
+        <v>3463</v>
       </c>
       <c r="B182" t="s">
-        <v>3235</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>3436</v>
+        <v>3465</v>
       </c>
       <c r="B183" t="s">
-        <v>3437</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>3438</v>
+        <v>3467</v>
       </c>
       <c r="B184" t="s">
-        <v>3439</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>3440</v>
+        <v>3469</v>
       </c>
       <c r="B185" t="s">
-        <v>3441</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>3442</v>
+        <v>3471</v>
       </c>
       <c r="B186" t="s">
-        <v>3318</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>3443</v>
+        <v>3473</v>
       </c>
       <c r="B187" t="s">
-        <v>3444</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>3445</v>
+        <v>3475</v>
       </c>
       <c r="B188" t="s">
-        <v>3446</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>3447</v>
+        <v>3477</v>
       </c>
       <c r="B189" t="s">
-        <v>3448</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>3449</v>
+        <v>3479</v>
       </c>
       <c r="B190" t="s">
-        <v>3450</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>3451</v>
+        <v>3481</v>
       </c>
       <c r="B191" t="s">
-        <v>3452</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>3453</v>
+        <v>3483</v>
       </c>
       <c r="B192" t="s">
-        <v>3454</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>3455</v>
+        <v>3485</v>
       </c>
       <c r="B193" t="s">
-        <v>3456</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>3457</v>
+        <v>3487</v>
       </c>
       <c r="B194" t="s">
-        <v>3458</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>3459</v>
+        <v>3489</v>
       </c>
       <c r="B195" t="s">
-        <v>3460</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>3461</v>
+        <v>3491</v>
       </c>
       <c r="B196" t="s">
-        <v>3462</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>3463</v>
+        <v>3493</v>
       </c>
       <c r="B197" t="s">
-        <v>3464</v>
+        <v>3494</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>3465</v>
+        <v>3495</v>
       </c>
       <c r="B198" t="s">
-        <v>3466</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>3467</v>
+        <v>3497</v>
       </c>
       <c r="B199" t="s">
-        <v>3468</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>3469</v>
+        <v>3499</v>
       </c>
       <c r="B200" t="s">
-        <v>3470</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>3471</v>
+        <v>3501</v>
       </c>
       <c r="B201" t="s">
-        <v>3472</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>3473</v>
+        <v>3501</v>
       </c>
       <c r="B202" t="s">
-        <v>3474</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>3475</v>
+        <v>3504</v>
       </c>
       <c r="B203" t="s">
-        <v>3476</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>3477</v>
+        <v>3506</v>
       </c>
       <c r="B204" t="s">
-        <v>3478</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>3479</v>
+        <v>3508</v>
       </c>
       <c r="B205" t="s">
-        <v>3480</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>3481</v>
+        <v>3510</v>
       </c>
       <c r="B206" t="s">
-        <v>3482</v>
+        <v>3511</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>3483</v>
+        <v>3512</v>
       </c>
       <c r="B207" t="s">
-        <v>3484</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>3485</v>
+        <v>3514</v>
       </c>
       <c r="B208" t="s">
-        <v>3486</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>3487</v>
+        <v>3516</v>
       </c>
       <c r="B209" t="s">
-        <v>3488</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>3489</v>
+        <v>3518</v>
       </c>
       <c r="B210" t="s">
-        <v>3490</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>3491</v>
+        <v>3520</v>
       </c>
       <c r="B211" t="s">
-        <v>3492</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>3493</v>
+        <v>3522</v>
       </c>
       <c r="B212" t="s">
-        <v>3494</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>3495</v>
+        <v>3524</v>
       </c>
       <c r="B213" t="s">
-        <v>3496</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>3497</v>
+        <v>3526</v>
       </c>
       <c r="B214" t="s">
-        <v>3498</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>3497</v>
+        <v>3528</v>
       </c>
       <c r="B215" t="s">
-        <v>3499</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>3500</v>
+        <v>3530</v>
       </c>
       <c r="B216" t="s">
-        <v>3501</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>3502</v>
+        <v>3532</v>
       </c>
       <c r="B217" t="s">
-        <v>3503</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>3504</v>
+        <v>3534</v>
       </c>
       <c r="B218" t="s">
-        <v>3505</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>3506</v>
+        <v>3536</v>
       </c>
       <c r="B219" t="s">
-        <v>3507</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>3508</v>
+        <v>3538</v>
       </c>
       <c r="B220" t="s">
-        <v>3509</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>3510</v>
+        <v>3540</v>
       </c>
       <c r="B221" t="s">
-        <v>3511</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>3512</v>
+        <v>3542</v>
       </c>
       <c r="B222" t="s">
-        <v>3513</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>3514</v>
+        <v>3544</v>
       </c>
       <c r="B223" t="s">
-        <v>3515</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>3516</v>
+        <v>3546</v>
       </c>
       <c r="B224" t="s">
-        <v>3517</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>3518</v>
+        <v>3548</v>
       </c>
       <c r="B225" t="s">
-        <v>3519</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>3520</v>
+        <v>3550</v>
       </c>
       <c r="B226" t="s">
-        <v>3521</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>3522</v>
+        <v>3552</v>
       </c>
       <c r="B227" t="s">
-        <v>3523</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>3524</v>
+        <v>3554</v>
       </c>
       <c r="B228" t="s">
-        <v>3525</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>3526</v>
+        <v>3556</v>
       </c>
       <c r="B229" t="s">
-        <v>3527</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>3528</v>
+        <v>3558</v>
       </c>
       <c r="B230" t="s">
-        <v>3529</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>3530</v>
+        <v>3560</v>
       </c>
       <c r="B231" t="s">
-        <v>3531</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>3532</v>
+        <v>3562</v>
       </c>
       <c r="B232" t="s">
-        <v>3533</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>3534</v>
+        <v>3564</v>
       </c>
       <c r="B233" t="s">
-        <v>3535</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>3536</v>
+        <v>3566</v>
       </c>
       <c r="B234" t="s">
-        <v>3537</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>3538</v>
+        <v>3568</v>
       </c>
       <c r="B235" t="s">
-        <v>3539</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>3540</v>
+        <v>3568</v>
       </c>
       <c r="B236" t="s">
-        <v>3541</v>
+        <v>3570</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>3542</v>
+        <v>3568</v>
       </c>
       <c r="B237" t="s">
-        <v>3543</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>3544</v>
+        <v>3568</v>
       </c>
       <c r="B238" t="s">
-        <v>3545</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>3546</v>
+        <v>3573</v>
       </c>
       <c r="B239" t="s">
-        <v>3547</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>3548</v>
+        <v>3575</v>
       </c>
       <c r="B240" t="s">
-        <v>3549</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>3550</v>
+        <v>3577</v>
       </c>
       <c r="B241" t="s">
-        <v>3551</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>3552</v>
+        <v>3579</v>
       </c>
       <c r="B242" t="s">
-        <v>3553</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>3554</v>
+        <v>3581</v>
       </c>
       <c r="B243" t="s">
-        <v>3555</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" t="s">
-        <v>3556</v>
-      </c>
-      <c r="B244" t="s">
-        <v>3557</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2">
-      <c r="A245" t="s">
-        <v>3558</v>
-      </c>
-      <c r="B245" t="s">
-        <v>3559</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2">
-      <c r="A246" t="s">
-        <v>3560</v>
-      </c>
-      <c r="B246" t="s">
-        <v>3561</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2">
-      <c r="A247" t="s">
-        <v>3562</v>
-      </c>
-      <c r="B247" t="s">
-        <v>3563</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2">
-      <c r="A248" t="s">
-        <v>3564</v>
-      </c>
-      <c r="B248" t="s">
-        <v>3565</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2">
-      <c r="A249" t="s">
-        <v>3564</v>
-      </c>
-      <c r="B249" t="s">
-        <v>3566</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2">
-      <c r="A250" t="s">
-        <v>3564</v>
-      </c>
-      <c r="B250" t="s">
-        <v>3567</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2">
-      <c r="A251" t="s">
-        <v>3564</v>
-      </c>
-      <c r="B251" t="s">
-        <v>3568</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" t="s">
-        <v>3569</v>
-      </c>
-      <c r="B252" t="s">
-        <v>3570</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2">
-      <c r="A253" t="s">
-        <v>3571</v>
-      </c>
-      <c r="B253" t="s">
-        <v>3572</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2">
-      <c r="A254" t="s">
-        <v>3573</v>
-      </c>
-      <c r="B254" t="s">
-        <v>3574</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2">
-      <c r="A255" t="s">
-        <v>3575</v>
-      </c>
-      <c r="B255" t="s">
-        <v>3576</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2">
-      <c r="A256" t="s">
-        <v>3577</v>
-      </c>
-      <c r="B256" t="s">
-        <v>3578</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2">
-      <c r="A257" t="s">
-        <v>3579</v>
-      </c>
-      <c r="B257" t="s">
-        <v>3580</v>
+        <v>3582</v>
       </c>
     </row>
   </sheetData>

--- a/Reference/Ability.xlsx
+++ b/Reference/Ability.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4577" uniqueCount="3583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4567" uniqueCount="3583">
   <si>
     <t>- Volume Up: Power of sound based moves are increased by 30%. Used by Loudred/Exploud.</t>
   </si>
@@ -8597,7 +8597,7 @@
     <t xml:space="preserve">The Pokémon dampens its surroundings, preventing all Pokémon from using explosive moves such as Self-Destruct. </t>
   </si>
   <si>
-    <t>在场时，不仅使爆炸类技能使用失败，而且也让引爆不能发动。</t>
+    <t>在场时，不仅使爆炸类技能使用失败，而且也使引爆不能发动。</t>
   </si>
   <si>
     <t>Dire Diversion</t>
@@ -8624,7 +8624,7 @@
     <t xml:space="preserve">Contact with the Pokémon may inflict poison, sleep, or paralysis on the attacker. </t>
   </si>
   <si>
-    <t>被接触类技能攻击时，有30%的概率使攻击者睡眠、麻痹或者中毒。</t>
+    <t>被接触类技能攻击时，有30%的概率使对手睡眠、麻痹或者中毒。</t>
   </si>
   <si>
     <t xml:space="preserve">Flame Body </t>
@@ -8651,7 +8651,7 @@
     <t xml:space="preserve">If hit by a Fire-type move, the Pokémon absorbs the flames and uses them to power up its own Fire-type moves. </t>
   </si>
   <si>
-    <t>被火属性技能命中时，不会受到影响，还会使自身在使用火属性技能时物攻和特攻增加50%。</t>
+    <t>被火属性技能攻击时，不会受到该技能的影响，还会使自身在使用火属性技能时物攻和特攻增加50%。</t>
   </si>
   <si>
     <t xml:space="preserve">Frisk </t>
@@ -8750,7 +8750,7 @@
     <t xml:space="preserve">The Pokémon's keen eyes prevent its accuracy from being lowered. It also ignores the target's stages in evasion. </t>
   </si>
   <si>
-    <t>命中率不会被对手减少；无视目标增加的回避率能力等级。</t>
+    <t>命中率不会被对手减少；使用技能时，无视对手增加的回避率能力等级。</t>
   </si>
   <si>
     <t xml:space="preserve">Lightning Rod </t>
@@ -8759,7 +8759,7 @@
     <t xml:space="preserve">The Pokémon draws in all Electric-type moves. Instead of taking damage from them, its Sp. Atk stat is boosted. </t>
   </si>
   <si>
-    <t>吸引电属性技能，不仅不会受到影响，还会使特攻能力等级增加1级。</t>
+    <t>吸引电属性技能，不仅不会受到该技能的影响，还会使特攻能力等级增加1级。</t>
   </si>
   <si>
     <t xml:space="preserve">Limber </t>
@@ -8804,7 +8804,7 @@
     <t xml:space="preserve">The Pokémon takes no damage when hit by Electric-type moves. Instead, its Speed stat is boosted. </t>
   </si>
   <si>
-    <t>被电属性技能命中时，不仅不会受到影响，还会使速度能力等级增加1级。</t>
+    <t>被电属性技能攻击时，不仅不会受到该技能的影响，还会使速度能力等级增加1级。</t>
   </si>
   <si>
     <t xml:space="preserve">Natural Cure </t>
@@ -8867,7 +8867,7 @@
     <t xml:space="preserve">May poison a target when the Pokémon makes contact. </t>
   </si>
   <si>
-    <t>使用接触类技能攻击时，有30%的概率使目标中毒。</t>
+    <t>使用接触类技能攻击时，有30%的概率使对手中毒。</t>
   </si>
   <si>
     <t xml:space="preserve">Propeller Tail </t>
@@ -8921,7 +8921,7 @@
     <t>Before using a status move against a single foe, lowers their Sp. Def by two steps.</t>
   </si>
   <si>
-    <t>使用单体的变化类技能时，会在技能命中目标之前先使目标的特防能力等级减少2阶。</t>
+    <t>使用单体的变化类技能时，会在技能攻击对手之前先使对手的特防能力等级减少2阶。</t>
   </si>
   <si>
     <t xml:space="preserve">Rock Head </t>
@@ -8957,7 +8957,7 @@
     <t xml:space="preserve">The Pokémon takes no damage when hit by Grass-type moves. Instead, its Attack stat is boosted. </t>
   </si>
   <si>
-    <t>被草属性技能命中时，不仅不会受到影响，还会使物攻能力等级增加1级。</t>
+    <t>被草属性技能攻击时，不仅不会受到影响，还会使物攻能力等级增加1级。</t>
   </si>
   <si>
     <t xml:space="preserve">Shadow Tag </t>
@@ -9047,7 +9047,7 @@
     <t xml:space="preserve">By releasing a stench when attacking, the Pokémon may cause the target to flinch. </t>
   </si>
   <si>
-    <t>攻击时，有10%的概率使目标畏缩。</t>
+    <t>攻击时，有10%的概率使对手畏缩。</t>
   </si>
   <si>
     <t xml:space="preserve">Sticky Hold </t>
@@ -9065,7 +9065,7 @@
     <t xml:space="preserve">The Pokémon draws in all Water-type moves. Instead of taking damage from them, its Sp. Atk stat is boosted. </t>
   </si>
   <si>
-    <t>吸引水属性技能，不仅不会受到影响，还会使特攻能力等级增加1级。</t>
+    <t>吸引水属性技能，不仅不会受到该技能的影响，还会使特攻能力等级增加1级。</t>
   </si>
   <si>
     <t xml:space="preserve">Strong Jaw </t>
@@ -9092,7 +9092,7 @@
     <t xml:space="preserve">The Pokémon uses suction cups to stay in one spot. This protects it from moves and items that would force it to switch out. </t>
   </si>
   <si>
-    <t>不会被对手强制换下场。</t>
+    <t>不会被对手强制替换下场。</t>
   </si>
   <si>
     <t>Swift Stomps</t>
@@ -9137,7 +9137,7 @@
     <t xml:space="preserve">The power of the Pokémon's toxic chain may badly poison any target the Pokémon hits with a move. </t>
   </si>
   <si>
-    <t>攻击时，有30%的概率使目标陷入剧毒。</t>
+    <t>攻击时，有30%的概率使对手中剧毒。</t>
   </si>
   <si>
     <t>Unfazed</t>
@@ -9164,7 +9164,7 @@
     <t xml:space="preserve">If hit by an Electric-type move, the Pokémon has its HP restored instead of taking damage. </t>
   </si>
   <si>
-    <t>被电属性技能命中时，不会受到影响，还会回复25%HP。</t>
+    <t>被电属性技能攻击时，不会受到该技能的影响，还会回复25%HP。</t>
   </si>
   <si>
     <t xml:space="preserve">Water Absorb </t>
@@ -9173,7 +9173,7 @@
     <t xml:space="preserve">If hit by a Water-type move, the Pokémon has its HP restored instead of taking damage. </t>
   </si>
   <si>
-    <t>被水属性技能命中时，不会受到影响，还会回复25%HP。</t>
+    <t>被水属性技能攻击时，不会受到该技能的影响，还会回复25%HP。</t>
   </si>
   <si>
     <t xml:space="preserve">Wonder Skin </t>
@@ -9203,187 +9203,187 @@
     <t>免疫对手的声音类技能。</t>
   </si>
   <si>
+    <t>根据对手的物防和特防中较小的那项能力，对应地增加自己的物攻或者特攻的能力等级一级。</t>
+  </si>
+  <si>
+    <t>出场时，开启持续8回合的晴天。</t>
+  </si>
+  <si>
+    <t>不会受到水属性技能的影响，而是回复25%HP；受到的火属性技能的伤害增加25%；回合结束时，如果是雨天则会回复12.5%HP，如果是晴天则会减少12.5%HP。</t>
+  </si>
+  <si>
+    <t>睡眠的持续回合减少50%。</t>
+  </si>
+  <si>
+    <t>根据天气改变形态；使用改变天气的技能时会释放气象球。</t>
+  </si>
+  <si>
+    <t>HP少于50%时，就会吃掉携带的树果。</t>
+  </si>
+  <si>
+    <t>受到的火属性技能的伤害减少50%；不会受到烧伤的伤害。</t>
+  </si>
+  <si>
+    <t>物攻增加100%。</t>
+  </si>
+  <si>
+    <t>命中率减少10%，但是物攻和特攻会增加50%。</t>
+  </si>
+  <si>
+    <t>雨天时，回合结束时会回复异常。</t>
+  </si>
+  <si>
+    <t>Prevents accuracy from being lowered.</t>
+  </si>
+  <si>
+    <t>命中率绝对不会被减少；无视目标增加的回避率。</t>
+  </si>
+  <si>
+    <t>拳类技能的威力增加30%。</t>
+  </si>
+  <si>
+    <t>晴天时，免疫异常。</t>
+  </si>
+  <si>
+    <t>在被吸取HP后，对手不仅不会得到回复，反而会受到同等的伤害。</t>
+  </si>
+  <si>
+    <t>免疫冻伤；受到的水属性和冰属性技能的伤害减少30%。</t>
+  </si>
+  <si>
+    <t>使对手的非幽灵属性的钢属性精灵无法逃走和替换。</t>
+  </si>
+  <si>
+    <t>队友有正电或者负电时，伤害增加100%。</t>
+  </si>
+  <si>
+    <t>该特性的精灵使用的技能和对该特性的精灵使用的技能都必定会命中。</t>
+  </si>
+  <si>
+    <t>所有技能的属性变成一般属性；技能威力增加20%；技能至少会打出一倍效果。</t>
+  </si>
+  <si>
+    <t>草属性技能威力增加20%，当HP少于33%时，威力增加量增加到50%。</t>
+  </si>
+  <si>
+    <t>May pick up items.</t>
+  </si>
+  <si>
+    <t>没有携带物品时，回合结束时会获得当回合其他精灵消耗的物品。</t>
+  </si>
+  <si>
+    <t>中毒时，回合结束时HP不仅不会减少，反而会回复12.5%HP。</t>
+  </si>
+  <si>
+    <t>成为非队友使用的技能的目标时，该技能需要多消耗1PP；出场时，清除场上精灵增加的能力等级。</t>
+  </si>
+  <si>
+    <t>雨天时，回合结束时回复12.5%HP。</t>
+  </si>
+  <si>
+    <t>Deals 1.25x to same gender. Takes 0.75x from opposite gender.</t>
+  </si>
+  <si>
+    <t>对同性的目标造成的伤害增加25%，对异性的目标造成的伤害减少25%。</t>
+  </si>
+  <si>
+    <t>必定能够逃走；当能力等级被对手减少后，速度能力等级增加一级。</t>
+  </si>
+  <si>
+    <t>出场时，开启持续8回合的沙暴。</t>
+  </si>
+  <si>
+    <t>技能的附加效果发动的概率增加100%。</t>
+  </si>
+  <si>
+    <t>回合结束时，有33%概率回复异常。</t>
+  </si>
+  <si>
+    <t>能力等级增加或者减少的量增加100%。</t>
+  </si>
+  <si>
+    <t>连续攻击类技能必定能够使出最大次数。</t>
+  </si>
+  <si>
+    <t>命中要害时，伤害增加50%。</t>
+  </si>
+  <si>
+    <t>雪天时，回避率增加25%；免疫冰雹的伤害。</t>
+  </si>
+  <si>
+    <t>晴天时，物攻和特攻中较大的那一项增加50%。</t>
+  </si>
+  <si>
+    <t>在同一先制度时，必定会最后使用技能。</t>
+  </si>
+  <si>
+    <t>畏缩时，速度能力等级增加一级。</t>
+  </si>
+  <si>
+    <t>虫属性技能威力增加20%，当HP少于33%时，威力增加量增加到50%。</t>
+  </si>
+  <si>
+    <t>处于混乱时，对方对自身使用的技能的命中率减少50%。</t>
+  </si>
+  <si>
+    <t>使用基础威力小于或者等于60的技能时，技能威力增加50%。</t>
+  </si>
+  <si>
+    <t>受到的火属性和冰属性技能的伤害减少50%。</t>
+  </si>
+  <si>
+    <t>水属性技能威力增加20%，当HP少于33%时，威力增加量增加到50%。</t>
+  </si>
+  <si>
+    <t>复制对手的特性，此特性变为复制到的特性。</t>
+  </si>
+  <si>
+    <t>每两个回合只能使用一次伤害类技能。</t>
+  </si>
+  <si>
+    <t>当失去携带的物品后，速度增加100%。</t>
+  </si>
+  <si>
+    <t>免疫烧伤，即使烧伤了也会立刻解除；出场时，释放水流环。</t>
+  </si>
+  <si>
     <t>免疫非自身的能力等级减少效果。</t>
   </si>
   <si>
-    <t>根据对手的物防和特防中较小的那项能力，对应地增加自己的物攻或者特攻的能力等级一级。</t>
-  </si>
-  <si>
-    <t>出场时，开启持续8回合的晴天。</t>
-  </si>
-  <si>
-    <t>不会受到水属性技能的影响，而是回复25%HP；受到的火属性技能的伤害增加25%；回合结束时，如果是雨天则会回复12.5%HP，如果是晴天则会减少12.5%HP。</t>
-  </si>
-  <si>
-    <t>睡眠的持续回合减少50%。</t>
-  </si>
-  <si>
-    <t>根据天气改变形态；使用改变天气的技能时会释放气象球。</t>
-  </si>
-  <si>
-    <t>HP少于50%时，就会吃掉携带的树果。</t>
-  </si>
-  <si>
-    <t>受到的火属性技能的伤害减少50%；不会受到烧伤的伤害。</t>
-  </si>
-  <si>
-    <t>物攻增加100%。</t>
-  </si>
-  <si>
-    <t>命中率减少10%，但是物攻和特攻会增加50%。</t>
-  </si>
-  <si>
-    <t>雨天时，回合结束时会回复异常。</t>
-  </si>
-  <si>
-    <t>Prevents accuracy from being lowered.</t>
-  </si>
-  <si>
-    <t>命中率绝对不会被减少；无视目标增加的回避率。</t>
-  </si>
-  <si>
-    <t>拳类技能的威力增加30%。</t>
-  </si>
-  <si>
-    <t>晴天时，免疫异常。</t>
+    <t xml:space="preserve">Rough Skin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Pokémon's rough skin damages attackers that make direct contact with it. </t>
+  </si>
+  <si>
+    <t>被接触类技能攻击后，对手会受到12.5%HP的伤害。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wonder Guard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its mysterious power only lets supereffective moves hit the Pokémon. </t>
+  </si>
+  <si>
+    <t>只会受到效果拔群的技能的伤害和非直接类伤害。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levitate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">By floating in the air, the Pokémon receives full immunity to all Ground-type moves. </t>
   </si>
   <si>
     <t>免疫地面属性技能的影响；自身视为飞空单位；飞行属性技能威力增加25%。</t>
   </si>
   <si>
-    <t>在被吸取HP后，对手不仅不会得到回复，反而会受到同等的伤害。</t>
-  </si>
-  <si>
-    <t>免疫冻伤；受到的水属性和冰属性技能的伤害减少30%。</t>
-  </si>
-  <si>
-    <t>使对手的非幽灵属性的钢属性精灵无法逃走和替换。</t>
-  </si>
-  <si>
-    <t>队友有正电或者负电时，伤害增加100%。</t>
-  </si>
-  <si>
-    <t>该特性的精灵使用的技能和对该特性的精灵使用的技能都必定会命中。</t>
-  </si>
-  <si>
-    <t>所有技能的属性变成一般属性；技能威力增加20%；技能至少会打出一倍效果。</t>
-  </si>
-  <si>
-    <t>草属性技能威力增加20%，当HP少于33%时，威力增加量增加到50%。</t>
-  </si>
-  <si>
-    <t>May pick up items.</t>
-  </si>
-  <si>
-    <t>没有携带物品时，回合结束时会获得当回合其他精灵消耗的物品。</t>
-  </si>
-  <si>
-    <t>中毒时，回合结束时HP不仅不会减少，反而会回复12.5%HP。</t>
-  </si>
-  <si>
-    <t>成为非队友使用的技能的目标时，该技能需要多消耗1PP；出场时，清除场上精灵增加的能力等级。</t>
-  </si>
-  <si>
-    <t>雨天时，回合结束时回复12.5%HP。</t>
-  </si>
-  <si>
-    <t>Deals 1.25x to same gender. Takes 0.75x from opposite gender.</t>
-  </si>
-  <si>
-    <t>对同性的目标造成的伤害增加25%，对异性的目标造成的伤害减少25%。</t>
-  </si>
-  <si>
-    <t>被接触类技能攻击后，对手会受到12.5%HP的伤害。</t>
-  </si>
-  <si>
-    <t>必定能够逃走；当能力等级被对手减少后，速度能力等级增加一级。</t>
-  </si>
-  <si>
-    <t>出场时，开启持续8回合的沙暴。</t>
-  </si>
-  <si>
-    <t>技能的附加效果发动的概率增加100%。</t>
-  </si>
-  <si>
-    <t>回合结束时，有33%概率回复异常。</t>
-  </si>
-  <si>
-    <t>能力等级增加或者减少的量增加100%。</t>
-  </si>
-  <si>
-    <t>连续攻击类技能必定能够使出最大次数。</t>
-  </si>
-  <si>
-    <t>命中要害时，伤害增加50%。</t>
-  </si>
-  <si>
-    <t>雪天时，回避率增加25%；免疫冰雹的伤害。</t>
-  </si>
-  <si>
-    <t>晴天时，物攻和特攻中较大的那一项增加50%。</t>
-  </si>
-  <si>
-    <t>在同一先制度时，必定会最后使用技能。</t>
-  </si>
-  <si>
-    <t>畏缩时，速度能力等级增加一级。</t>
-  </si>
-  <si>
-    <t>虫属性技能威力增加20%，当HP少于33%时，威力增加量增加到50%。</t>
+    <t xml:space="preserve">Synchronize </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the Pokémon is burned, paralyzed, or poisoned by another Pokémon, that Pokémon will be inflicted with the same status condition. </t>
   </si>
   <si>
     <t>对手使自身陷入异常时，对手也会陷入同样的异常。</t>
-  </si>
-  <si>
-    <t>处于混乱时，对方对自身使用的技能的命中率减少50%。</t>
-  </si>
-  <si>
-    <t>使用基础威力小于或者等于60的技能时，技能威力增加50%。</t>
-  </si>
-  <si>
-    <t>受到的火属性和冰属性技能的伤害减少50%。</t>
-  </si>
-  <si>
-    <t>水属性技能威力增加20%，当HP少于33%时，威力增加量增加到50%。</t>
-  </si>
-  <si>
-    <t>复制对手的特性，此特性变为复制到的特性。</t>
-  </si>
-  <si>
-    <t>每两个回合只能使用一次伤害类技能。</t>
-  </si>
-  <si>
-    <t>当失去携带的物品后，速度增加100%。</t>
-  </si>
-  <si>
-    <t>免疫烧伤，即使烧伤了也会立刻解除；出场时，释放水流环。</t>
-  </si>
-  <si>
-    <t>只会受到效果拔群的技能的伤害和非直接类伤害。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rough Skin </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Pokémon's rough skin damages attackers that make direct contact with it. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wonder Guard </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Its mysterious power only lets supereffective moves hit the Pokémon. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Levitate </t>
-  </si>
-  <si>
-    <t xml:space="preserve">By floating in the air, the Pokémon receives full immunity to all Ground-type moves. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synchronize </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the Pokémon is burned, paralyzed, or poisoned by another Pokémon, that Pokémon will be inflicted with the same status condition. </t>
   </si>
   <si>
     <t xml:space="preserve">Clear Body </t>
@@ -10781,25 +10781,25 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10813,15 +10813,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10837,6 +10836,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10858,22 +10879,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10882,22 +10896,6 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10936,14 +10934,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -10970,133 +10977,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11114,7 +10995,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11126,7 +11037,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11138,13 +11073,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11158,17 +11165,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11176,8 +11177,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11198,16 +11214,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11232,26 +11248,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11260,31 +11267,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11293,16 +11300,16 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -11311,97 +11318,97 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11412,18 +11419,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -26455,17 +26468,17 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C137"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="17.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="71.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="60.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="60.75" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -26476,7 +26489,7 @@
       <c r="B1" s="1" t="s">
         <v>2829</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2830</v>
       </c>
     </row>
@@ -26487,7 +26500,7 @@
       <c r="B2" s="1" t="s">
         <v>2832</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2833</v>
       </c>
     </row>
@@ -26498,7 +26511,7 @@
       <c r="B3" s="1" t="s">
         <v>2835</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>2836</v>
       </c>
     </row>
@@ -26509,7 +26522,7 @@
       <c r="B4" s="1" t="s">
         <v>2838</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>2839</v>
       </c>
     </row>
@@ -26520,7 +26533,7 @@
       <c r="B5" s="1" t="s">
         <v>2841</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>2842</v>
       </c>
     </row>
@@ -26531,7 +26544,7 @@
       <c r="B6" s="1" t="s">
         <v>2844</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>2845</v>
       </c>
     </row>
@@ -26542,7 +26555,7 @@
       <c r="B7" s="1" t="s">
         <v>2847</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>2848</v>
       </c>
     </row>
@@ -26553,7 +26566,7 @@
       <c r="B8" s="1" t="s">
         <v>2850</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>2851</v>
       </c>
     </row>
@@ -26564,7 +26577,7 @@
       <c r="B9" s="1" t="s">
         <v>2853</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>2854</v>
       </c>
     </row>
@@ -26575,7 +26588,7 @@
       <c r="B10" s="1" t="s">
         <v>2856</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>2857</v>
       </c>
     </row>
@@ -26586,7 +26599,7 @@
       <c r="B11" s="1" t="s">
         <v>2859</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>2860</v>
       </c>
     </row>
@@ -26597,7 +26610,7 @@
       <c r="B12" s="1" t="s">
         <v>2862</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>2863</v>
       </c>
     </row>
@@ -26608,7 +26621,7 @@
       <c r="B13" s="1" t="s">
         <v>2865</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>2866</v>
       </c>
     </row>
@@ -26619,7 +26632,7 @@
       <c r="B14" s="1" t="s">
         <v>2868</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>2869</v>
       </c>
     </row>
@@ -26630,7 +26643,7 @@
       <c r="B15" s="1" t="s">
         <v>2871</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>2872</v>
       </c>
     </row>
@@ -26641,7 +26654,7 @@
       <c r="B16" s="1" t="s">
         <v>2874</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>2875</v>
       </c>
     </row>
@@ -26652,7 +26665,7 @@
       <c r="B17" s="1" t="s">
         <v>2877</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>2878</v>
       </c>
     </row>
@@ -26663,7 +26676,7 @@
       <c r="B18" s="1" t="s">
         <v>2880</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>2881</v>
       </c>
     </row>
@@ -26674,7 +26687,7 @@
       <c r="B19" s="1" t="s">
         <v>2883</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>2884</v>
       </c>
     </row>
@@ -26685,7 +26698,7 @@
       <c r="B20" s="1" t="s">
         <v>2886</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>2887</v>
       </c>
     </row>
@@ -26696,7 +26709,7 @@
       <c r="B21" s="1" t="s">
         <v>2889</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>2890</v>
       </c>
     </row>
@@ -26707,7 +26720,7 @@
       <c r="B22" s="1" t="s">
         <v>2892</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>2893</v>
       </c>
     </row>
@@ -26718,7 +26731,7 @@
       <c r="B23" s="1" t="s">
         <v>2895</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>2896</v>
       </c>
     </row>
@@ -26729,7 +26742,7 @@
       <c r="B24" s="1" t="s">
         <v>2898</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>2899</v>
       </c>
     </row>
@@ -26740,7 +26753,7 @@
       <c r="B25" s="1" t="s">
         <v>2901</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>2902</v>
       </c>
     </row>
@@ -26751,7 +26764,7 @@
       <c r="B26" s="1" t="s">
         <v>2904</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>2905</v>
       </c>
     </row>
@@ -26762,7 +26775,7 @@
       <c r="B27" s="1" t="s">
         <v>2907</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>2908</v>
       </c>
     </row>
@@ -26773,7 +26786,7 @@
       <c r="B28" s="1" t="s">
         <v>2910</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>2911</v>
       </c>
     </row>
@@ -26784,7 +26797,7 @@
       <c r="B29" s="1" t="s">
         <v>2913</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>2914</v>
       </c>
     </row>
@@ -26795,7 +26808,7 @@
       <c r="B30" s="1" t="s">
         <v>2916</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>2917</v>
       </c>
     </row>
@@ -26806,7 +26819,7 @@
       <c r="B31" s="1" t="s">
         <v>2919</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="3" t="s">
         <v>2920</v>
       </c>
     </row>
@@ -26817,7 +26830,7 @@
       <c r="B32" s="1" t="s">
         <v>2922</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>2923</v>
       </c>
     </row>
@@ -26828,7 +26841,7 @@
       <c r="B33" s="1" t="s">
         <v>2925</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="3" t="s">
         <v>2926</v>
       </c>
     </row>
@@ -26839,7 +26852,7 @@
       <c r="B34" s="1" t="s">
         <v>2928</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="3" t="s">
         <v>2929</v>
       </c>
     </row>
@@ -26850,7 +26863,7 @@
       <c r="B35" s="1" t="s">
         <v>2931</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="3" t="s">
         <v>2932</v>
       </c>
     </row>
@@ -26861,7 +26874,7 @@
       <c r="B36" s="1" t="s">
         <v>2934</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>2935</v>
       </c>
     </row>
@@ -26872,7 +26885,7 @@
       <c r="B37" s="1" t="s">
         <v>2937</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>2938</v>
       </c>
     </row>
@@ -26883,7 +26896,7 @@
       <c r="B38" s="1" t="s">
         <v>2940</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="3" t="s">
         <v>2941</v>
       </c>
     </row>
@@ -26894,7 +26907,7 @@
       <c r="B39" s="1" t="s">
         <v>2943</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>2944</v>
       </c>
     </row>
@@ -26905,7 +26918,7 @@
       <c r="B40" s="1" t="s">
         <v>2946</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>2947</v>
       </c>
     </row>
@@ -26916,7 +26929,7 @@
       <c r="B41" s="1" t="s">
         <v>2949</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="3" t="s">
         <v>2950</v>
       </c>
     </row>
@@ -26927,7 +26940,7 @@
       <c r="B42" s="1" t="s">
         <v>2952</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="3" t="s">
         <v>2953</v>
       </c>
     </row>
@@ -26938,7 +26951,7 @@
       <c r="B43" s="1" t="s">
         <v>2955</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="3" t="s">
         <v>2956</v>
       </c>
     </row>
@@ -26949,7 +26962,7 @@
       <c r="B44" s="1" t="s">
         <v>2958</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="3" t="s">
         <v>2959</v>
       </c>
     </row>
@@ -26960,7 +26973,7 @@
       <c r="B45" s="1" t="s">
         <v>2961</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="3" t="s">
         <v>2962</v>
       </c>
     </row>
@@ -26971,7 +26984,7 @@
       <c r="B46" s="1" t="s">
         <v>2964</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="3" t="s">
         <v>2965</v>
       </c>
     </row>
@@ -26982,7 +26995,7 @@
       <c r="B47" s="1" t="s">
         <v>2967</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="3" t="s">
         <v>2968</v>
       </c>
     </row>
@@ -26993,7 +27006,7 @@
       <c r="B48" s="1" t="s">
         <v>2970</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="3" t="s">
         <v>2971</v>
       </c>
     </row>
@@ -27004,7 +27017,7 @@
       <c r="B49" s="1" t="s">
         <v>2973</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="3" t="s">
         <v>2974</v>
       </c>
     </row>
@@ -27015,7 +27028,7 @@
       <c r="B50" s="1" t="s">
         <v>2976</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="3" t="s">
         <v>2977</v>
       </c>
     </row>
@@ -27026,7 +27039,7 @@
       <c r="B51" s="1" t="s">
         <v>2979</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="3" t="s">
         <v>2980</v>
       </c>
     </row>
@@ -27037,7 +27050,7 @@
       <c r="B52" s="1" t="s">
         <v>2982</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="3" t="s">
         <v>2983</v>
       </c>
     </row>
@@ -27048,7 +27061,7 @@
       <c r="B53" s="1" t="s">
         <v>2985</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>2836</v>
       </c>
     </row>
@@ -27059,7 +27072,7 @@
       <c r="B54" s="1" t="s">
         <v>2987</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="4" t="s">
         <v>2988</v>
       </c>
     </row>
@@ -27070,7 +27083,7 @@
       <c r="B55" s="1" t="s">
         <v>2990</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="3" t="s">
         <v>2991</v>
       </c>
     </row>
@@ -27081,7 +27094,7 @@
       <c r="B56" s="1" t="s">
         <v>2993</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="3" t="s">
         <v>2994</v>
       </c>
     </row>
@@ -27092,7 +27105,7 @@
       <c r="B57" s="1" t="s">
         <v>2949</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="3" t="s">
         <v>2950</v>
       </c>
     </row>
@@ -27103,7 +27116,7 @@
       <c r="B58" s="1" t="s">
         <v>2997</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="3" t="s">
         <v>2998</v>
       </c>
     </row>
@@ -27114,7 +27127,7 @@
       <c r="B59" s="1" t="s">
         <v>3000</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="3" t="s">
         <v>3001</v>
       </c>
     </row>
@@ -27125,7 +27138,7 @@
       <c r="B60" s="1" t="s">
         <v>3003</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="3" t="s">
         <v>3004</v>
       </c>
     </row>
@@ -27136,7 +27149,7 @@
       <c r="B61" s="1" t="s">
         <v>3006</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="3" t="s">
         <v>3007</v>
       </c>
     </row>
@@ -27147,7 +27160,7 @@
       <c r="B62" s="1" t="s">
         <v>3009</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="3" t="s">
         <v>3010</v>
       </c>
     </row>
@@ -27158,7 +27171,7 @@
       <c r="B63" s="1" t="s">
         <v>3012</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>3013</v>
       </c>
     </row>
@@ -27169,7 +27182,7 @@
       <c r="B64" s="1" t="s">
         <v>3015</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="3" t="s">
         <v>3016</v>
       </c>
     </row>
@@ -27180,7 +27193,7 @@
       <c r="B65" s="1" t="s">
         <v>3018</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>3019</v>
       </c>
     </row>
@@ -27191,7 +27204,7 @@
       <c r="B66" s="1" t="s">
         <v>3021</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="3" t="s">
         <v>3022</v>
       </c>
     </row>
@@ -27202,7 +27215,7 @@
       <c r="B67" s="1" t="s">
         <v>3024</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="3" t="s">
         <v>3025</v>
       </c>
     </row>
@@ -27213,7 +27226,7 @@
       <c r="B68" s="1" t="s">
         <v>3027</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="3" t="s">
         <v>3028</v>
       </c>
     </row>
@@ -27224,7 +27237,7 @@
       <c r="B69" s="1" t="s">
         <v>3030</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="3" t="s">
         <v>3031</v>
       </c>
     </row>
@@ -27235,7 +27248,7 @@
       <c r="B70" s="1" t="s">
         <v>3033</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="3" t="s">
         <v>3034</v>
       </c>
     </row>
@@ -27246,7 +27259,7 @@
       <c r="B71" s="1" t="s">
         <v>3036</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="3" t="s">
         <v>3037</v>
       </c>
     </row>
@@ -27257,7 +27270,7 @@
       <c r="B72" s="1" t="s">
         <v>3039</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="3" t="s">
         <v>3040</v>
       </c>
     </row>
@@ -27268,7 +27281,7 @@
       <c r="B73" s="1" t="s">
         <v>3042</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="3" t="s">
         <v>3043</v>
       </c>
     </row>
@@ -27279,7 +27292,7 @@
       <c r="B74" s="1" t="s">
         <v>3045</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="3" t="s">
         <v>3046</v>
       </c>
     </row>
@@ -27290,7 +27303,7 @@
       <c r="B75" s="1" t="s">
         <v>3048</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="3" t="s">
         <v>3049</v>
       </c>
     </row>
@@ -27301,12 +27314,12 @@
       <c r="B76" s="1" t="s">
         <v>3051</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="3" t="s">
         <v>3052</v>
       </c>
     </row>
     <row r="77" s="1" customFormat="1" spans="3:3">
-      <c r="C77" s="5"/>
+      <c r="C77" s="6"/>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="1" t="s">
@@ -27315,7 +27328,7 @@
       <c r="B78" s="1" t="s">
         <v>1702</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="7" t="s">
         <v>3053</v>
       </c>
     </row>
@@ -27326,7 +27339,7 @@
       <c r="B79" s="1" t="s">
         <v>1626</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="7" t="s">
         <v>3054</v>
       </c>
     </row>
@@ -27337,7 +27350,7 @@
       <c r="B80" s="1" t="s">
         <v>1694</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="7" t="s">
         <v>3055</v>
       </c>
     </row>
@@ -27348,7 +27361,7 @@
       <c r="B81" s="1" t="s">
         <v>1683</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="7" t="s">
         <v>3056</v>
       </c>
     </row>
@@ -27359,7 +27372,7 @@
       <c r="B82" s="1" t="s">
         <v>1678</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="7" t="s">
         <v>3057</v>
       </c>
     </row>
@@ -27370,16 +27383,16 @@
       <c r="B83" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="7" t="s">
         <v>3058</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="1" t="s">
-        <v>655</v>
+        <v>539</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>1642</v>
+        <v>1699</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>3059</v>
@@ -27387,153 +27400,153 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="1" t="s">
-        <v>539</v>
+        <v>575</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C85" s="6" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C85" s="7" t="s">
         <v>3060</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="1" t="s">
-        <v>575</v>
+        <v>541</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>1682</v>
-      </c>
-      <c r="C86" s="6" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C86" s="7" t="s">
         <v>3061</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="1" t="s">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>1698</v>
-      </c>
-      <c r="C87" s="6" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C87" s="7" t="s">
         <v>3062</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="1" t="s">
-        <v>619</v>
+        <v>597</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>1661</v>
-      </c>
-      <c r="C88" s="6" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C88" s="7" t="s">
         <v>3063</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="1" t="s">
-        <v>597</v>
+        <v>551</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C89" s="6" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C89" s="7" t="s">
         <v>3064</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="1" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>1692</v>
-      </c>
-      <c r="C90" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C90" s="7" t="s">
         <v>3065</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="1" t="s">
-        <v>545</v>
+        <v>642</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C91" s="6" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C91" s="7" t="s">
         <v>3066</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="1" t="s">
-        <v>642</v>
+        <v>605</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C92" s="6" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>3067</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="1" t="s">
-        <v>605</v>
+        <v>523</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>1668</v>
-      </c>
-      <c r="C93" s="6" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>3068</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="1" t="s">
-        <v>523</v>
+        <v>645</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>1704</v>
-      </c>
-      <c r="C94" s="6" t="s">
         <v>3069</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>3070</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="1" t="s">
-        <v>645</v>
+        <v>537</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>3070</v>
-      </c>
-      <c r="C95" s="6" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>3071</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="1" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>1700</v>
-      </c>
-      <c r="C96" s="6" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C96" s="7" t="s">
         <v>3072</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="1" t="s">
-        <v>505</v>
+        <v>587</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C97" s="6" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C97" s="7" t="s">
         <v>3073</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="1" t="s">
-        <v>660</v>
+        <v>635</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>1639</v>
+        <v>1653</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>3074</v>
@@ -27541,164 +27554,164 @@
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="1" t="s">
-        <v>587</v>
+        <v>631</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>1676</v>
-      </c>
-      <c r="C99" s="6" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C99" s="7" t="s">
         <v>3075</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="1" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C100" s="6" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C100" s="7" t="s">
         <v>3076</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="1" t="s">
-        <v>631</v>
+        <v>511</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C101" s="6" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C101" s="7" t="s">
         <v>3077</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="1" t="s">
-        <v>599</v>
+        <v>517</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C102" s="6" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C102" s="7" t="s">
         <v>3078</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="1" t="s">
-        <v>511</v>
+        <v>585</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C103" s="6" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C103" s="7" t="s">
         <v>3079</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="1" t="s">
-        <v>517</v>
+        <v>609</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C104" s="6" t="s">
         <v>3080</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>3081</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="1" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>3081</v>
+        <v>1670</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>3076</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="1" t="s">
-        <v>609</v>
+        <v>529</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C106" s="7" t="s">
         <v>3082</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>3083</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="1" t="s">
-        <v>601</v>
+        <v>623</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>3078</v>
+        <v>1659</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>3083</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="1" t="s">
-        <v>529</v>
+        <v>567</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>3084</v>
+        <v>1650</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>3066</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="1" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>3085</v>
+        <v>1657</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>3084</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="1" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>3067</v>
+        <v>3085</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>3086</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="1" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>3086</v>
+        <v>1663</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>3087</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="1" t="s">
-        <v>557</v>
+        <v>625</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>3087</v>
-      </c>
-      <c r="C112" s="6" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C112" s="7" t="s">
         <v>3088</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="1" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>1637</v>
+        <v>1645</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>3089</v>
@@ -27706,153 +27719,153 @@
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="1" t="s">
-        <v>615</v>
+        <v>593</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>1663</v>
-      </c>
-      <c r="C114" s="6" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C114" s="7" t="s">
         <v>3090</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="1" t="s">
-        <v>625</v>
+        <v>543</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>1658</v>
-      </c>
-      <c r="C115" s="6" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C115" s="7" t="s">
         <v>3091</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="1" t="s">
-        <v>650</v>
+        <v>525</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C116" s="6" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C116" s="7" t="s">
         <v>3092</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="1" t="s">
-        <v>593</v>
+        <v>515</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C117" s="6" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C117" s="7" t="s">
         <v>3093</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="1" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C118" s="6" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C118" s="7" t="s">
         <v>3094</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="1" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C119" s="6" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C119" s="7" t="s">
         <v>3095</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="1" t="s">
-        <v>515</v>
+        <v>629</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>1708</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>3096</v>
+        <v>1656</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>3058</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="1" t="s">
-        <v>553</v>
+        <v>509</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>3097</v>
+        <v>510</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>3096</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="1" t="s">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>3098</v>
+        <v>1690</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>3097</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="1" t="s">
-        <v>629</v>
+        <v>579</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>1656</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>3058</v>
+        <v>1680</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>3098</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="1" t="s">
-        <v>509</v>
+        <v>561</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C124" s="6" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C124" s="7" t="s">
         <v>3099</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="1" t="s">
-        <v>555</v>
+        <v>507</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C125" s="6" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C125" s="7" t="s">
         <v>3100</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="1" t="s">
-        <v>579</v>
+        <v>621</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>1680</v>
-      </c>
-      <c r="C126" s="6" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C126" s="7" t="s">
         <v>3101</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="1" t="s">
-        <v>656</v>
+        <v>581</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>1641</v>
+        <v>1679</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>3102</v>
@@ -27860,138 +27873,83 @@
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="1" t="s">
-        <v>561</v>
+        <v>643</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C128" s="6" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C128" s="7" t="s">
         <v>3103</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="1" t="s">
-        <v>507</v>
+        <v>607</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C129" s="6" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C129" s="7" t="s">
         <v>3104</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="1" t="s">
-        <v>621</v>
+        <v>547</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>1660</v>
-      </c>
-      <c r="C130" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C130" s="7" t="s">
         <v>3105</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="1" t="s">
-        <v>581</v>
+        <v>633</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C131" s="6" t="s">
+        <v>1654</v>
+      </c>
+      <c r="C131" s="7" t="s">
         <v>3106</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="1" t="s">
-        <v>643</v>
+        <v>569</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C132" s="6" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C132" s="7" t="s">
         <v>3107</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C134" s="6" t="s">
-        <v>3109</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>1654</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>3110</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>1642</v>
-      </c>
-      <c r="C136" s="6" t="s">
-        <v>3059</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>3111</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A1:C76">
     <sortCondition ref="A76"/>
   </sortState>
-  <conditionalFormatting sqref="B93">
+  <conditionalFormatting sqref="B92">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B109">
+  <conditionalFormatting sqref="B107">
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B133">
+  <conditionalFormatting sqref="B129">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A136:C136">
+  <conditionalFormatting sqref="A132:C132">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78:A121 A138:A65566">
+  <conditionalFormatting sqref="A78:A118 A133:A65561">
     <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A78 A79 A80 A81 A82 A83 A84 A85 A86 A87 A88 A95 A96 A99 A102 A103 A104 A105 A106 A107 A108 A109 A110 A111 A112 A113 A114 A115 A116 A117 A118 A121 A89:A90 A91:A94 A97:A98 A100:A101 A119:A120" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A78 A79 A80 A81 A82 A83 A84 A85 A86 A87 A94 A95 A96 A97 A100 A101 A102 A103 A104 A105 A106 A107 A108 A109 A110 A111 A112 A113 A114 A115 A118 A88:A89 A90:A93 A98:A99 A116:A117" errorStyle="warning">
       <formula1>COUNTIF($A:$A,A78)&lt;2</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A138:A1048576" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="A133:A1048576" errorStyle="warning">
       <formula1>COUNTIF($A:$A,#REF!)&lt;2</formula1>
     </dataValidation>
   </dataValidations>
@@ -28003,57 +27961,72 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B243"/>
+  <dimension ref="A1:C243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.75" customWidth="1"/>
     <col min="2" max="2" width="43.625" customWidth="1"/>
     <col min="3" max="3" width="67.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>3108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3111</v>
+      </c>
+      <c r="B2" t="s">
         <v>3112</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>3113</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>3114</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>3115</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>3116</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>3117</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>3118</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>3119</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>3120</v>
       </c>
       <c r="B5" t="s">
         <v>3121</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3107</v>
       </c>
     </row>
     <row r="6" spans="1:2">
